--- a/JupyterNotebooks/AvgHW/Gamma2F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,49 +626,49 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.034435656193434</v>
+        <v>0.9625310150665568</v>
       </c>
       <c r="D3">
+        <v>1.034435656193435</v>
+      </c>
+      <c r="E3">
         <v>0.9625310150665568</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.004038729617242</v>
       </c>
-      <c r="F3">
-        <v>1.034435656193434</v>
-      </c>
       <c r="G3">
-        <v>0.9969793140920128</v>
+        <v>1.011315101873817</v>
       </c>
       <c r="H3">
         <v>0.9761098238031254</v>
       </c>
       <c r="I3">
-        <v>1.011315101873817</v>
+        <v>0.9969793140920128</v>
       </c>
       <c r="J3">
-        <v>0.9625310150665568</v>
+        <v>1.034435656193435</v>
       </c>
       <c r="K3">
-        <v>1.034435656193434</v>
+        <v>1.034435656193435</v>
       </c>
       <c r="L3">
         <v>1.004038729617242</v>
       </c>
       <c r="M3">
-        <v>0.9832848723418992</v>
+        <v>0.9832848723418994</v>
       </c>
       <c r="N3">
-        <v>0.9832848723418992</v>
+        <v>0.9832848723418994</v>
       </c>
       <c r="O3">
-        <v>0.9808931894956413</v>
+        <v>0.9808931894956414</v>
       </c>
       <c r="P3">
-        <v>1.000335133625744</v>
+        <v>1.000335133625745</v>
       </c>
       <c r="Q3">
-        <v>1.000335133625744</v>
+        <v>1.000335133625745</v>
       </c>
       <c r="R3">
         <v>1.008860264267667</v>
@@ -725,10 +677,10 @@
         <v>1.008860264267667</v>
       </c>
       <c r="T3">
-        <v>0.9975682734410313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9975682734410315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9261994985095362</v>
+      </c>
+      <c r="D4">
         <v>1.064628966246604</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.9261994985095362</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.007997753761681</v>
       </c>
-      <c r="F4">
-        <v>1.064628966246604</v>
-      </c>
       <c r="G4">
-        <v>0.9958493136187239</v>
+        <v>1.021613889446317</v>
       </c>
       <c r="H4">
         <v>0.9544634774574785</v>
       </c>
       <c r="I4">
-        <v>1.021613889446317</v>
+        <v>0.9958493136187239</v>
       </c>
       <c r="J4">
-        <v>0.9261994985095362</v>
+        <v>1.064628966246604</v>
       </c>
       <c r="K4">
         <v>1.064628966246604</v>
@@ -790,7 +742,7 @@
         <v>0.99512548317339</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,31 +750,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.124089697823741</v>
+        <v>0.8617024393663375</v>
       </c>
       <c r="D5">
+        <v>1.12408969782374</v>
+      </c>
+      <c r="E5">
         <v>0.8617024393663375</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.015612715900933</v>
       </c>
-      <c r="F5">
-        <v>1.124089697823741</v>
-      </c>
       <c r="G5">
-        <v>0.9946262138485408</v>
+        <v>1.041039736717601</v>
       </c>
       <c r="H5">
         <v>0.912526591578092</v>
       </c>
       <c r="I5">
-        <v>1.041039736717601</v>
+        <v>0.9946262138485408</v>
       </c>
       <c r="J5">
-        <v>0.8617024393663375</v>
+        <v>1.12408969782374</v>
       </c>
       <c r="K5">
-        <v>1.124089697823741</v>
+        <v>1.12408969782374</v>
       </c>
       <c r="L5">
         <v>1.015612715900933</v>
@@ -837,10 +789,10 @@
         <v>0.9299472489484543</v>
       </c>
       <c r="P5">
-        <v>1.000468284363671</v>
+        <v>1.00046828436367</v>
       </c>
       <c r="Q5">
-        <v>1.000468284363671</v>
+        <v>1.00046828436367</v>
       </c>
       <c r="R5">
         <v>1.031373637728688</v>
@@ -852,7 +804,7 @@
         <v>0.9915995658725407</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.8032758238480378</v>
+      </c>
+      <c r="D6">
         <v>1.191155418055294</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.8032758238480378</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.033834996408027</v>
       </c>
-      <c r="F6">
-        <v>1.191155418055294</v>
-      </c>
       <c r="G6">
-        <v>0.9826193390809704</v>
+        <v>1.061705929225544</v>
       </c>
       <c r="H6">
         <v>0.867479214100162</v>
       </c>
       <c r="I6">
-        <v>1.061705929225544</v>
+        <v>0.9826193390809705</v>
       </c>
       <c r="J6">
-        <v>0.8032758238480378</v>
+        <v>1.191155418055294</v>
       </c>
       <c r="K6">
         <v>1.191155418055294</v>
@@ -914,7 +866,7 @@
         <v>0.9900117867863392</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9986930563890832</v>
+      </c>
+      <c r="D7">
         <v>0.999120168728345</v>
       </c>
-      <c r="D7">
-        <v>0.9986930563890842</v>
-      </c>
       <c r="E7">
+        <v>0.9986930563890832</v>
+      </c>
+      <c r="F7">
         <v>1.000807830280548</v>
       </c>
-      <c r="F7">
+      <c r="G7">
+        <v>1.000244744914473</v>
+      </c>
+      <c r="H7">
+        <v>0.9988236459174653</v>
+      </c>
+      <c r="I7">
+        <v>1.004407205767999</v>
+      </c>
+      <c r="J7">
         <v>0.999120168728345</v>
-      </c>
-      <c r="G7">
-        <v>1.004407205767999</v>
-      </c>
-      <c r="H7">
-        <v>0.9988236459174655</v>
-      </c>
-      <c r="I7">
-        <v>1.000244744914473</v>
-      </c>
-      <c r="J7">
-        <v>0.9986930563890842</v>
       </c>
       <c r="K7">
         <v>0.999120168728345</v>
@@ -952,31 +904,31 @@
         <v>1.000807830280548</v>
       </c>
       <c r="M7">
-        <v>0.9997504433348161</v>
+        <v>0.9997504433348157</v>
       </c>
       <c r="N7">
-        <v>0.9997504433348161</v>
+        <v>0.9997504433348157</v>
       </c>
       <c r="O7">
-        <v>0.9994415108623659</v>
+        <v>0.9994415108623654</v>
       </c>
       <c r="P7">
-        <v>0.9995403517993258</v>
+        <v>0.9995403517993254</v>
       </c>
       <c r="Q7">
-        <v>0.9995403517993258</v>
+        <v>0.9995403517993253</v>
       </c>
       <c r="R7">
-        <v>0.9994353060315806</v>
+        <v>0.9994353060315803</v>
       </c>
       <c r="S7">
-        <v>0.9994353060315806</v>
+        <v>0.9994353060315803</v>
       </c>
       <c r="T7">
-        <v>1.000349441999653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000349441999652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +936,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.997708638412847</v>
+        <v>0.996460400905622</v>
       </c>
       <c r="D8">
-        <v>0.9964604009056228</v>
+        <v>0.9977086384128466</v>
       </c>
       <c r="E8">
+        <v>0.996460400905622</v>
+      </c>
+      <c r="F8">
         <v>1.00226432434852</v>
       </c>
-      <c r="F8">
-        <v>0.997708638412847</v>
-      </c>
       <c r="G8">
-        <v>1.010772156482636</v>
+        <v>1.000740849664877</v>
       </c>
       <c r="H8">
-        <v>0.996968334813221</v>
+        <v>0.9969683348132208</v>
       </c>
       <c r="I8">
-        <v>1.000740849664878</v>
+        <v>1.010772156482637</v>
       </c>
       <c r="J8">
-        <v>0.9964604009056228</v>
+        <v>0.9977086384128466</v>
       </c>
       <c r="K8">
-        <v>0.997708638412847</v>
+        <v>0.9977086384128466</v>
       </c>
       <c r="L8">
         <v>1.00226432434852</v>
       </c>
       <c r="M8">
-        <v>0.9993623626270715</v>
+        <v>0.9993623626270709</v>
       </c>
       <c r="N8">
-        <v>0.9993623626270715</v>
+        <v>0.9993623626270709</v>
       </c>
       <c r="O8">
-        <v>0.9985643533557879</v>
+        <v>0.9985643533557876</v>
       </c>
       <c r="P8">
-        <v>0.99881112122233</v>
+        <v>0.9988111212223295</v>
       </c>
       <c r="Q8">
-        <v>0.9988111212223298</v>
+        <v>0.9988111212223295</v>
       </c>
       <c r="R8">
-        <v>0.9985355005199591</v>
+        <v>0.9985355005199588</v>
       </c>
       <c r="S8">
-        <v>0.9985355005199591</v>
+        <v>0.9985355005199588</v>
       </c>
       <c r="T8">
         <v>1.000819117437954</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9949434279195543</v>
+      </c>
+      <c r="D9">
         <v>0.9968190388243835</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.9949434279195543</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.003518237515514</v>
       </c>
-      <c r="F9">
-        <v>0.9968190388243835</v>
-      </c>
       <c r="G9">
-        <v>1.0141543611823</v>
+        <v>1.001286653888668</v>
       </c>
       <c r="H9">
         <v>0.9955323113623665</v>
       </c>
       <c r="I9">
-        <v>1.001286653888668</v>
+        <v>1.0141543611823</v>
       </c>
       <c r="J9">
-        <v>0.9949434279195543</v>
+        <v>0.9968190388243835</v>
       </c>
       <c r="K9">
         <v>0.9968190388243835</v>
@@ -1076,16 +1028,16 @@
         <v>1.003518237515514</v>
       </c>
       <c r="M9">
-        <v>0.9992308327175341</v>
+        <v>0.9992308327175343</v>
       </c>
       <c r="N9">
-        <v>0.9992308327175341</v>
+        <v>0.9992308327175343</v>
       </c>
       <c r="O9">
-        <v>0.9979979922658115</v>
+        <v>0.9979979922658117</v>
       </c>
       <c r="P9">
-        <v>0.9984269014198173</v>
+        <v>0.9984269014198174</v>
       </c>
       <c r="Q9">
         <v>0.9984269014198173</v>
@@ -1100,7 +1052,7 @@
         <v>1.001042338448798</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9889783109671861</v>
+      </c>
+      <c r="D10">
         <v>0.9932824450637388</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.9889783109671861</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.007170135107538</v>
       </c>
-      <c r="F10">
-        <v>0.9932824450637388</v>
-      </c>
       <c r="G10">
-        <v>1.031374233215704</v>
+        <v>1.002505319093087</v>
       </c>
       <c r="H10">
         <v>0.9905722075270861</v>
       </c>
       <c r="I10">
-        <v>1.002505319093087</v>
+        <v>1.031374233215704</v>
       </c>
       <c r="J10">
-        <v>0.9889783109671861</v>
+        <v>0.9932824450637388</v>
       </c>
       <c r="K10">
         <v>0.9932824450637388</v>
@@ -1162,7 +1114,7 @@
         <v>1.00231377516239</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9809614646182505</v>
+      </c>
+      <c r="D11">
         <v>0.988777826648669</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.9809614646182505</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.012942801312521</v>
       </c>
-      <c r="F11">
-        <v>0.988777826648669</v>
-      </c>
       <c r="G11">
-        <v>1.04964658044853</v>
+        <v>1.004777158589736</v>
       </c>
       <c r="H11">
         <v>0.9839587087785814</v>
       </c>
       <c r="I11">
-        <v>1.004777158589736</v>
+        <v>1.04964658044853</v>
       </c>
       <c r="J11">
-        <v>0.9809614646182505</v>
+        <v>0.988777826648669</v>
       </c>
       <c r="K11">
         <v>0.988777826648669</v>
@@ -1224,7 +1176,7 @@
         <v>1.003510756732715</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.016718304143196</v>
+      </c>
+      <c r="D12">
         <v>1.306553329187661</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1.016718304143196</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.8044022550594857</v>
       </c>
-      <c r="F12">
+      <c r="G12">
+        <v>0.9545421566353679</v>
+      </c>
+      <c r="H12">
+        <v>1.151268193834164</v>
+      </c>
+      <c r="I12">
+        <v>0.3915914898314264</v>
+      </c>
+      <c r="J12">
         <v>1.306553329187661</v>
-      </c>
-      <c r="G12">
-        <v>0.3915914898314266</v>
-      </c>
-      <c r="H12">
-        <v>1.151268193834163</v>
-      </c>
-      <c r="I12">
-        <v>0.9545421566353679</v>
-      </c>
-      <c r="J12">
-        <v>1.016718304143196</v>
       </c>
       <c r="K12">
         <v>1.306553329187661</v>
@@ -1268,7 +1220,7 @@
         <v>0.9105602796013406</v>
       </c>
       <c r="O12">
-        <v>0.9907962510122815</v>
+        <v>0.9907962510122816</v>
       </c>
       <c r="P12">
         <v>1.04255796279678</v>
@@ -1283,10 +1235,10 @@
         <v>1.108556804394501</v>
       </c>
       <c r="T12">
-        <v>0.93751262144855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9375126214485499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8282507625880423</v>
+        <v>1.220097920298576</v>
       </c>
       <c r="D13">
+        <v>0.8282507625880421</v>
+      </c>
+      <c r="E13">
         <v>1.220097920298576</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.045599442459515</v>
       </c>
-      <c r="F13">
-        <v>0.8282507625880423</v>
-      </c>
       <c r="G13">
-        <v>1.10316431461687</v>
+        <v>0.9803007820091709</v>
       </c>
       <c r="H13">
         <v>1.026463273013141</v>
       </c>
       <c r="I13">
-        <v>0.9803007820091709</v>
+        <v>1.10316431461687</v>
       </c>
       <c r="J13">
-        <v>1.220097920298576</v>
+        <v>0.8282507625880421</v>
       </c>
       <c r="K13">
-        <v>0.8282507625880423</v>
+        <v>0.8282507625880421</v>
       </c>
       <c r="L13">
         <v>1.045599442459515</v>
@@ -1348,7 +1300,7 @@
         <v>1.033979415830886</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9064318062972869</v>
+      </c>
+      <c r="D14">
         <v>1.299238763673717</v>
       </c>
-      <c r="D14">
-        <v>0.9064318062972871</v>
-      </c>
       <c r="E14">
+        <v>0.9064318062972869</v>
+      </c>
+      <c r="F14">
         <v>0.8220856183483974</v>
       </c>
-      <c r="F14">
-        <v>1.299238763673717</v>
-      </c>
       <c r="G14">
-        <v>0.3653633047128018</v>
+        <v>0.9559355432670433</v>
       </c>
       <c r="H14">
         <v>1.162669017626981</v>
       </c>
       <c r="I14">
-        <v>0.9559355432670432</v>
+        <v>0.3653633047128017</v>
       </c>
       <c r="J14">
-        <v>0.9064318062972871</v>
+        <v>1.299238763673717</v>
       </c>
       <c r="K14">
         <v>1.299238763673717</v>
@@ -1410,7 +1362,7 @@
         <v>0.9186206756543712</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.347075039476081</v>
+      </c>
+      <c r="D15">
         <v>0.8665237636107087</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.347075039476081</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.030009634818634</v>
       </c>
-      <c r="F15">
-        <v>0.8665237636107087</v>
-      </c>
       <c r="G15">
-        <v>1.100786876420988</v>
+        <v>0.9835968463244489</v>
       </c>
       <c r="H15">
         <v>1.000306395449703</v>
       </c>
       <c r="I15">
-        <v>0.9835968463244489</v>
+        <v>1.100786876420988</v>
       </c>
       <c r="J15">
-        <v>1.347075039476081</v>
+        <v>0.8665237636107087</v>
       </c>
       <c r="K15">
         <v>0.8665237636107087</v>
@@ -1472,7 +1424,7 @@
         <v>1.054716426016761</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.00443731900812</v>
+        <v>0.261414683597813</v>
       </c>
       <c r="D16">
-        <v>1.000694614316868</v>
+        <v>1.607273559223628</v>
       </c>
       <c r="E16">
-        <v>0.9975227876629486</v>
+        <v>0.261414683597813</v>
       </c>
       <c r="F16">
-        <v>1.00443731900812</v>
+        <v>1.082744349725461</v>
       </c>
       <c r="G16">
-        <v>1.000298408682302</v>
+        <v>1.212464057747444</v>
       </c>
       <c r="H16">
-        <v>1.000007676564611</v>
+        <v>0.5518848741830225</v>
       </c>
       <c r="I16">
-        <v>0.9991806395074418</v>
+        <v>1.008257853313585</v>
       </c>
       <c r="J16">
-        <v>1.000694614316868</v>
+        <v>1.607273559223628</v>
       </c>
       <c r="K16">
-        <v>1.00443731900812</v>
+        <v>1.607273559223628</v>
       </c>
       <c r="L16">
-        <v>0.9975227876629486</v>
+        <v>1.082744349725461</v>
       </c>
       <c r="M16">
-        <v>0.9991087009899084</v>
+        <v>0.6720795166616368</v>
       </c>
       <c r="N16">
-        <v>0.9991087009899084</v>
+        <v>0.6720795166616368</v>
       </c>
       <c r="O16">
-        <v>0.9994083595148094</v>
+        <v>0.632014635835432</v>
       </c>
       <c r="P16">
-        <v>1.000884906995979</v>
+        <v>0.9838108641823005</v>
       </c>
       <c r="Q16">
-        <v>1.000884906995979</v>
+        <v>0.9838108641823005</v>
       </c>
       <c r="R16">
-        <v>1.001773009999015</v>
+        <v>1.139676537942632</v>
       </c>
       <c r="S16">
-        <v>1.001773009999015</v>
+        <v>1.139676537942632</v>
       </c>
       <c r="T16">
-        <v>1.000356907623716</v>
+        <v>0.9540065629651587</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.991650292635321</v>
+        <v>0.4428803630333877</v>
       </c>
       <c r="D17">
-        <v>0.9988988146214572</v>
+        <v>1.383560861830021</v>
       </c>
       <c r="E17">
-        <v>1.004175844057032</v>
+        <v>0.4428803630333877</v>
       </c>
       <c r="F17">
-        <v>0.991650292635321</v>
+        <v>1.088175352494961</v>
       </c>
       <c r="G17">
-        <v>1.007292169968593</v>
+        <v>1.157403670719856</v>
       </c>
       <c r="H17">
-        <v>0.9986086765654104</v>
+        <v>0.6494430991633661</v>
       </c>
       <c r="I17">
-        <v>1.001198982816786</v>
+        <v>1.15384974693606</v>
       </c>
       <c r="J17">
-        <v>0.9988988146214572</v>
+        <v>1.383560861830021</v>
       </c>
       <c r="K17">
-        <v>0.991650292635321</v>
+        <v>1.383560861830021</v>
       </c>
       <c r="L17">
-        <v>1.004175844057032</v>
+        <v>1.088175352494961</v>
       </c>
       <c r="M17">
-        <v>1.001537329339245</v>
+        <v>0.7655278577641743</v>
       </c>
       <c r="N17">
-        <v>1.001537329339245</v>
+        <v>0.7655278577641743</v>
       </c>
       <c r="O17">
-        <v>1.000561111747966</v>
+        <v>0.7268329382305715</v>
       </c>
       <c r="P17">
-        <v>0.9982416504379369</v>
+        <v>0.9715388591194566</v>
       </c>
       <c r="Q17">
-        <v>0.9982416504379369</v>
+        <v>0.9715388591194566</v>
       </c>
       <c r="R17">
-        <v>0.9965938109872829</v>
+        <v>1.074544359797098</v>
       </c>
       <c r="S17">
-        <v>0.9965938109872829</v>
+        <v>1.074544359797098</v>
       </c>
       <c r="T17">
-        <v>1.000304130110767</v>
+        <v>0.9792188490296088</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.028059364851227</v>
+        <v>0.8052722633200302</v>
       </c>
       <c r="D18">
-        <v>0.9871638293530712</v>
+        <v>0.9383524400640116</v>
       </c>
       <c r="E18">
-        <v>0.9939684912719265</v>
+        <v>0.8052722633200302</v>
       </c>
       <c r="F18">
-        <v>1.028059364851227</v>
+        <v>1.098741032691073</v>
       </c>
       <c r="G18">
-        <v>0.9963050163687655</v>
+        <v>1.047723833449932</v>
       </c>
       <c r="H18">
-        <v>0.9924611504511616</v>
+        <v>0.8447682011081658</v>
       </c>
       <c r="I18">
-        <v>1.000831055375007</v>
+        <v>1.439122801660673</v>
       </c>
       <c r="J18">
-        <v>0.9871638293530712</v>
+        <v>0.9383524400640116</v>
       </c>
       <c r="K18">
-        <v>1.028059364851227</v>
+        <v>0.9383524400640116</v>
       </c>
       <c r="L18">
-        <v>0.9939684912719265</v>
+        <v>1.098741032691073</v>
       </c>
       <c r="M18">
-        <v>0.9905661603124989</v>
+        <v>0.9520066480055517</v>
       </c>
       <c r="N18">
-        <v>0.9905661603124989</v>
+        <v>0.9520066480055517</v>
       </c>
       <c r="O18">
-        <v>0.9911978236920532</v>
+        <v>0.9162604990397564</v>
       </c>
       <c r="P18">
-        <v>1.003063895158742</v>
+        <v>0.9474552453583717</v>
       </c>
       <c r="Q18">
-        <v>1.003063895158742</v>
+        <v>0.9474552453583716</v>
       </c>
       <c r="R18">
-        <v>1.009312762581863</v>
+        <v>0.9451795440347815</v>
       </c>
       <c r="S18">
-        <v>1.009312762581863</v>
+        <v>0.9451795440347815</v>
       </c>
       <c r="T18">
-        <v>0.9997981512785264</v>
+        <v>1.028996762048981</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8475148957310822</v>
+      </c>
+      <c r="D19">
+        <v>0.8981679774263277</v>
+      </c>
+      <c r="E19">
+        <v>0.8475148957310822</v>
+      </c>
+      <c r="F19">
+        <v>1.108367720983582</v>
+      </c>
+      <c r="G19">
+        <v>1.041784587414588</v>
+      </c>
+      <c r="H19">
+        <v>0.8310284619465833</v>
+      </c>
+      <c r="I19">
+        <v>1.556676779613123</v>
+      </c>
+      <c r="J19">
+        <v>0.8981679774263277</v>
+      </c>
+      <c r="K19">
+        <v>0.8981679774263277</v>
+      </c>
+      <c r="L19">
+        <v>1.108367720983582</v>
+      </c>
+      <c r="M19">
+        <v>0.9779413083573318</v>
+      </c>
+      <c r="N19">
+        <v>0.9779413083573318</v>
+      </c>
+      <c r="O19">
+        <v>0.9289703595537491</v>
+      </c>
+      <c r="P19">
+        <v>0.9513501980469972</v>
+      </c>
+      <c r="Q19">
+        <v>0.9513501980469972</v>
+      </c>
+      <c r="R19">
+        <v>0.9380546428918298</v>
+      </c>
+      <c r="S19">
+        <v>0.9380546428918298</v>
+      </c>
+      <c r="T19">
+        <v>1.047256737185881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000694614316868</v>
+      </c>
+      <c r="D20">
+        <v>1.004437319008121</v>
+      </c>
+      <c r="E20">
+        <v>1.000694614316868</v>
+      </c>
+      <c r="F20">
+        <v>0.9975227876629487</v>
+      </c>
+      <c r="G20">
+        <v>0.9991806395074418</v>
+      </c>
+      <c r="H20">
+        <v>1.000007676564611</v>
+      </c>
+      <c r="I20">
+        <v>1.000298408682302</v>
+      </c>
+      <c r="J20">
+        <v>1.004437319008121</v>
+      </c>
+      <c r="K20">
+        <v>1.004437319008121</v>
+      </c>
+      <c r="L20">
+        <v>0.9975227876629487</v>
+      </c>
+      <c r="M20">
+        <v>0.9991087009899086</v>
+      </c>
+      <c r="N20">
+        <v>0.9991087009899086</v>
+      </c>
+      <c r="O20">
+        <v>0.9994083595148094</v>
+      </c>
+      <c r="P20">
+        <v>1.000884906995979</v>
+      </c>
+      <c r="Q20">
+        <v>1.000884906995979</v>
+      </c>
+      <c r="R20">
+        <v>1.001773009999015</v>
+      </c>
+      <c r="S20">
+        <v>1.001773009999015</v>
+      </c>
+      <c r="T20">
+        <v>1.000356907623716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9988988146214574</v>
+      </c>
+      <c r="D21">
+        <v>0.9916502926353213</v>
+      </c>
+      <c r="E21">
+        <v>0.9988988146214574</v>
+      </c>
+      <c r="F21">
+        <v>1.004175844057033</v>
+      </c>
+      <c r="G21">
+        <v>1.001198982816786</v>
+      </c>
+      <c r="H21">
+        <v>0.9986086765654106</v>
+      </c>
+      <c r="I21">
+        <v>1.007292169968593</v>
+      </c>
+      <c r="J21">
+        <v>0.9916502926353213</v>
+      </c>
+      <c r="K21">
+        <v>0.9916502926353213</v>
+      </c>
+      <c r="L21">
+        <v>1.004175844057033</v>
+      </c>
+      <c r="M21">
+        <v>1.001537329339245</v>
+      </c>
+      <c r="N21">
+        <v>1.001537329339245</v>
+      </c>
+      <c r="O21">
+        <v>1.000561111747967</v>
+      </c>
+      <c r="P21">
+        <v>0.9982416504379371</v>
+      </c>
+      <c r="Q21">
+        <v>0.9982416504379371</v>
+      </c>
+      <c r="R21">
+        <v>0.9965938109872832</v>
+      </c>
+      <c r="S21">
+        <v>0.9965938109872832</v>
+      </c>
+      <c r="T21">
+        <v>1.000304130110767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9871638293530715</v>
+      </c>
+      <c r="D22">
+        <v>1.028059364851227</v>
+      </c>
+      <c r="E22">
+        <v>0.9871638293530715</v>
+      </c>
+      <c r="F22">
+        <v>0.9939684912719263</v>
+      </c>
+      <c r="G22">
+        <v>1.000831055375007</v>
+      </c>
+      <c r="H22">
+        <v>0.9924611504511615</v>
+      </c>
+      <c r="I22">
+        <v>0.9963050163687655</v>
+      </c>
+      <c r="J22">
+        <v>1.028059364851227</v>
+      </c>
+      <c r="K22">
+        <v>1.028059364851227</v>
+      </c>
+      <c r="L22">
+        <v>0.9939684912719263</v>
+      </c>
+      <c r="M22">
+        <v>0.9905661603124989</v>
+      </c>
+      <c r="N22">
+        <v>0.9905661603124989</v>
+      </c>
+      <c r="O22">
+        <v>0.991197823692053</v>
+      </c>
+      <c r="P22">
+        <v>1.003063895158742</v>
+      </c>
+      <c r="Q22">
+        <v>1.003063895158742</v>
+      </c>
+      <c r="R22">
+        <v>1.009312762581863</v>
+      </c>
+      <c r="S22">
+        <v>1.009312762581863</v>
+      </c>
+      <c r="T22">
+        <v>0.9997981512785267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9696006991939939</v>
+      </c>
+      <c r="D23">
         <v>1.099671761677133</v>
       </c>
-      <c r="D19">
+      <c r="E23">
         <v>0.9696006991939939</v>
       </c>
-      <c r="E19">
+      <c r="F23">
         <v>0.9684738962585434</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>1.001651426352629</v>
+      </c>
+      <c r="H23">
+        <v>0.9812010197801466</v>
+      </c>
+      <c r="I23">
+        <v>0.9682954899088356</v>
+      </c>
+      <c r="J23">
         <v>1.099671761677133</v>
       </c>
-      <c r="G19">
-        <v>0.9682954899088356</v>
-      </c>
-      <c r="H19">
-        <v>0.9812010197801466</v>
-      </c>
-      <c r="I19">
-        <v>1.001651426352629</v>
-      </c>
-      <c r="J19">
-        <v>0.9696006991939939</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.099671761677133</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9684738962585434</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9690372977262687</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9690372977262687</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9730918717442281</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.012582119043224</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.012582119043224</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.034354529701701</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.034354529701701</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9981490488618804</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9625310150665568</v>
+        <v>0.7756437506829967</v>
       </c>
       <c r="D3">
-        <v>1.034435656193435</v>
+        <v>0.9368374728098023</v>
       </c>
       <c r="E3">
-        <v>0.9625310150665568</v>
+        <v>0.7756437506829967</v>
       </c>
       <c r="F3">
-        <v>1.004038729617242</v>
+        <v>1.110952635619598</v>
       </c>
       <c r="G3">
-        <v>1.011315101873817</v>
+        <v>1.053443187853023</v>
       </c>
       <c r="H3">
-        <v>0.9761098238031254</v>
+        <v>0.8156876629214705</v>
       </c>
       <c r="I3">
-        <v>0.9969793140920128</v>
+        <v>1.527258129244962</v>
       </c>
       <c r="J3">
-        <v>1.034435656193435</v>
+        <v>0.9368374728098023</v>
       </c>
       <c r="K3">
-        <v>1.034435656193435</v>
+        <v>0.9368374728098023</v>
       </c>
       <c r="L3">
-        <v>1.004038729617242</v>
+        <v>1.110952635619598</v>
       </c>
       <c r="M3">
-        <v>0.9832848723418994</v>
+        <v>0.9432981931512976</v>
       </c>
       <c r="N3">
-        <v>0.9832848723418994</v>
+        <v>0.9432981931512976</v>
       </c>
       <c r="O3">
-        <v>0.9808931894956414</v>
+        <v>0.9007613497413552</v>
       </c>
       <c r="P3">
-        <v>1.000335133625745</v>
+        <v>0.9411446197041325</v>
       </c>
       <c r="Q3">
-        <v>1.000335133625745</v>
+        <v>0.9411446197041325</v>
       </c>
       <c r="R3">
-        <v>1.008860264267667</v>
+        <v>0.9400678329805501</v>
       </c>
       <c r="S3">
-        <v>1.008860264267667</v>
+        <v>0.9400678329805501</v>
       </c>
       <c r="T3">
-        <v>0.9975682734410315</v>
+        <v>1.036637139855309</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9261994985095362</v>
+        <v>0.7931807381269115</v>
       </c>
       <c r="D4">
-        <v>1.064628966246604</v>
+        <v>0.9364536579221016</v>
       </c>
       <c r="E4">
-        <v>0.9261994985095362</v>
+        <v>0.7931807381269115</v>
       </c>
       <c r="F4">
-        <v>1.007997753761681</v>
+        <v>1.103986521805811</v>
       </c>
       <c r="G4">
-        <v>1.021613889446317</v>
+        <v>1.049793642711517</v>
       </c>
       <c r="H4">
-        <v>0.9544634774574785</v>
+        <v>0.8318780961189878</v>
       </c>
       <c r="I4">
-        <v>0.9958493136187239</v>
+        <v>1.482215053219896</v>
       </c>
       <c r="J4">
-        <v>1.064628966246604</v>
+        <v>0.9364536579221016</v>
       </c>
       <c r="K4">
-        <v>1.064628966246604</v>
+        <v>0.9364536579221016</v>
       </c>
       <c r="L4">
-        <v>1.007997753761681</v>
+        <v>1.103986521805811</v>
       </c>
       <c r="M4">
-        <v>0.9670986261356087</v>
+        <v>0.9485836299663615</v>
       </c>
       <c r="N4">
-        <v>0.9670986261356087</v>
+        <v>0.9485836299663615</v>
       </c>
       <c r="O4">
-        <v>0.9628869099095653</v>
+        <v>0.9096817853505703</v>
       </c>
       <c r="P4">
-        <v>0.9996087395059403</v>
+        <v>0.9445403059516081</v>
       </c>
       <c r="Q4">
-        <v>0.9996087395059403</v>
+        <v>0.9445403059516081</v>
       </c>
       <c r="R4">
-        <v>1.015863796191106</v>
+        <v>0.9425186439442315</v>
       </c>
       <c r="S4">
-        <v>1.015863796191106</v>
+        <v>0.9425186439442315</v>
       </c>
       <c r="T4">
-        <v>0.99512548317339</v>
+        <v>1.032917951650871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8617024393663375</v>
+        <v>0.7424443613900275</v>
       </c>
       <c r="D5">
-        <v>1.12408969782374</v>
+        <v>0.9361747608086252</v>
       </c>
       <c r="E5">
-        <v>0.8617024393663375</v>
+        <v>0.7424443613900275</v>
       </c>
       <c r="F5">
-        <v>1.015612715900933</v>
+        <v>1.124654187897571</v>
       </c>
       <c r="G5">
-        <v>1.041039736717601</v>
+        <v>1.060296798059298</v>
       </c>
       <c r="H5">
-        <v>0.912526591578092</v>
+        <v>0.7850516819703506</v>
       </c>
       <c r="I5">
-        <v>0.9946262138485408</v>
+        <v>1.614248864458219</v>
       </c>
       <c r="J5">
-        <v>1.12408969782374</v>
+        <v>0.9361747608086252</v>
       </c>
       <c r="K5">
-        <v>1.12408969782374</v>
+        <v>0.9361747608086252</v>
       </c>
       <c r="L5">
-        <v>1.015612715900933</v>
+        <v>1.124654187897571</v>
       </c>
       <c r="M5">
-        <v>0.9386575776336354</v>
+        <v>0.9335492746437994</v>
       </c>
       <c r="N5">
-        <v>0.9386575776336354</v>
+        <v>0.9335492746437994</v>
       </c>
       <c r="O5">
-        <v>0.9299472489484543</v>
+        <v>0.8840500770859832</v>
       </c>
       <c r="P5">
-        <v>1.00046828436367</v>
+        <v>0.9344244366987414</v>
       </c>
       <c r="Q5">
-        <v>1.00046828436367</v>
+        <v>0.9344244366987414</v>
       </c>
       <c r="R5">
-        <v>1.031373637728688</v>
+        <v>0.9348620177262124</v>
       </c>
       <c r="S5">
-        <v>1.031373637728688</v>
+        <v>0.9348620177262124</v>
       </c>
       <c r="T5">
-        <v>0.9915995658725407</v>
+        <v>1.043811775764015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8032758238480378</v>
+        <v>0.7115713581431818</v>
       </c>
       <c r="D6">
-        <v>1.191155418055294</v>
+        <v>0.9339010697159088</v>
       </c>
       <c r="E6">
-        <v>0.8032758238480378</v>
+        <v>0.7115713581431818</v>
       </c>
       <c r="F6">
-        <v>1.033834996408027</v>
+        <v>1.138008761193182</v>
       </c>
       <c r="G6">
-        <v>1.061705929225544</v>
+        <v>1.066604092727273</v>
       </c>
       <c r="H6">
-        <v>0.867479214100162</v>
+        <v>0.756579445238636</v>
       </c>
       <c r="I6">
-        <v>0.9826193390809705</v>
+        <v>1.697195044715908</v>
       </c>
       <c r="J6">
-        <v>1.191155418055294</v>
+        <v>0.9339010697159088</v>
       </c>
       <c r="K6">
-        <v>1.191155418055294</v>
+        <v>0.9339010697159088</v>
       </c>
       <c r="L6">
-        <v>1.033834996408027</v>
+        <v>1.138008761193182</v>
       </c>
       <c r="M6">
-        <v>0.9185554101280323</v>
+        <v>0.9247900596681817</v>
       </c>
       <c r="N6">
-        <v>0.9185554101280323</v>
+        <v>0.9247900596681817</v>
       </c>
       <c r="O6">
-        <v>0.9015300114520756</v>
+        <v>0.8687198548583331</v>
       </c>
       <c r="P6">
-        <v>1.00942207943712</v>
+        <v>0.927827063017424</v>
       </c>
       <c r="Q6">
-        <v>1.00942207943712</v>
+        <v>0.9278270630174242</v>
       </c>
       <c r="R6">
-        <v>1.054855414091663</v>
+        <v>0.9293455646920453</v>
       </c>
       <c r="S6">
-        <v>1.054855414091663</v>
+        <v>0.9293455646920453</v>
       </c>
       <c r="T6">
-        <v>0.9900117867863392</v>
+        <v>1.050643295289015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9986930563890832</v>
+        <v>1.290353696953392</v>
       </c>
       <c r="D7">
-        <v>0.999120168728345</v>
+        <v>0.7929546458327915</v>
       </c>
       <c r="E7">
-        <v>0.9986930563890832</v>
+        <v>1.290353696953392</v>
       </c>
       <c r="F7">
-        <v>1.000807830280548</v>
+        <v>1.116707779451861</v>
       </c>
       <c r="G7">
-        <v>1.000244744914473</v>
+        <v>0.9949769446588266</v>
       </c>
       <c r="H7">
-        <v>0.9988236459174653</v>
+        <v>0.852385881390292</v>
       </c>
       <c r="I7">
-        <v>1.004407205767999</v>
+        <v>1.656242202184758</v>
       </c>
       <c r="J7">
-        <v>0.999120168728345</v>
+        <v>0.7929546458327915</v>
       </c>
       <c r="K7">
-        <v>0.999120168728345</v>
+        <v>0.7929546458327915</v>
       </c>
       <c r="L7">
-        <v>1.000807830280548</v>
+        <v>1.116707779451861</v>
       </c>
       <c r="M7">
-        <v>0.9997504433348157</v>
+        <v>1.203530738202627</v>
       </c>
       <c r="N7">
-        <v>0.9997504433348157</v>
+        <v>1.203530738202627</v>
       </c>
       <c r="O7">
-        <v>0.9994415108623654</v>
+        <v>1.086482452598515</v>
       </c>
       <c r="P7">
-        <v>0.9995403517993254</v>
+        <v>1.066672040746015</v>
       </c>
       <c r="Q7">
-        <v>0.9995403517993253</v>
+        <v>1.066672040746015</v>
       </c>
       <c r="R7">
-        <v>0.9994353060315803</v>
+        <v>0.9982426920177091</v>
       </c>
       <c r="S7">
-        <v>0.9994353060315803</v>
+        <v>0.9982426920177091</v>
       </c>
       <c r="T7">
-        <v>1.000349441999652</v>
+        <v>1.11727019174532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.996460400905622</v>
+        <v>1.283930090580594</v>
       </c>
       <c r="D8">
-        <v>0.9977086384128466</v>
+        <v>0.789831345357614</v>
       </c>
       <c r="E8">
-        <v>0.996460400905622</v>
+        <v>1.283930090580594</v>
       </c>
       <c r="F8">
-        <v>1.00226432434852</v>
+        <v>1.119805599905353</v>
       </c>
       <c r="G8">
-        <v>1.000740849664877</v>
+        <v>0.9960066618511904</v>
       </c>
       <c r="H8">
-        <v>0.9969683348132208</v>
+        <v>0.8487985641260259</v>
       </c>
       <c r="I8">
-        <v>1.010772156482637</v>
+        <v>1.669255030527202</v>
       </c>
       <c r="J8">
-        <v>0.9977086384128466</v>
+        <v>0.789831345357614</v>
       </c>
       <c r="K8">
-        <v>0.9977086384128466</v>
+        <v>0.789831345357614</v>
       </c>
       <c r="L8">
-        <v>1.00226432434852</v>
+        <v>1.119805599905353</v>
       </c>
       <c r="M8">
-        <v>0.9993623626270709</v>
+        <v>1.201867845242973</v>
       </c>
       <c r="N8">
-        <v>0.9993623626270709</v>
+        <v>1.201867845242973</v>
       </c>
       <c r="O8">
-        <v>0.9985643533557876</v>
+        <v>1.084178084870657</v>
       </c>
       <c r="P8">
-        <v>0.9988111212223295</v>
+        <v>1.064522345281187</v>
       </c>
       <c r="Q8">
-        <v>0.9988111212223295</v>
+        <v>1.064522345281187</v>
       </c>
       <c r="R8">
-        <v>0.9985355005199588</v>
+        <v>0.9958495953002937</v>
       </c>
       <c r="S8">
-        <v>0.9985355005199588</v>
+        <v>0.9958495953002937</v>
       </c>
       <c r="T8">
-        <v>1.000819117437954</v>
+        <v>1.117937882057997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9949434279195543</v>
+        <v>1.280036651426079</v>
       </c>
       <c r="D9">
-        <v>0.9968190388243835</v>
+        <v>0.7868228864041664</v>
       </c>
       <c r="E9">
-        <v>0.9949434279195543</v>
+        <v>1.280036651426079</v>
       </c>
       <c r="F9">
-        <v>1.003518237515514</v>
+        <v>1.121623793904179</v>
       </c>
       <c r="G9">
-        <v>1.001286653888668</v>
+        <v>0.9961875841134986</v>
       </c>
       <c r="H9">
-        <v>0.9955323113623665</v>
+        <v>0.8460472048735392</v>
       </c>
       <c r="I9">
-        <v>1.0141543611823</v>
+        <v>1.683547545167275</v>
       </c>
       <c r="J9">
-        <v>0.9968190388243835</v>
+        <v>0.7868228864041664</v>
       </c>
       <c r="K9">
-        <v>0.9968190388243835</v>
+        <v>0.7868228864041664</v>
       </c>
       <c r="L9">
-        <v>1.003518237515514</v>
+        <v>1.121623793904179</v>
       </c>
       <c r="M9">
-        <v>0.9992308327175343</v>
+        <v>1.200830222665129</v>
       </c>
       <c r="N9">
-        <v>0.9992308327175343</v>
+        <v>1.200830222665129</v>
       </c>
       <c r="O9">
-        <v>0.9979979922658117</v>
+        <v>1.082569216734599</v>
       </c>
       <c r="P9">
-        <v>0.9984269014198174</v>
+        <v>1.062827777244808</v>
       </c>
       <c r="Q9">
-        <v>0.9984269014198173</v>
+        <v>1.062827777244808</v>
       </c>
       <c r="R9">
-        <v>0.9980249357709589</v>
+        <v>0.993826554534648</v>
       </c>
       <c r="S9">
-        <v>0.9980249357709589</v>
+        <v>0.993826554534648</v>
       </c>
       <c r="T9">
-        <v>1.001042338448798</v>
+        <v>1.119044277648123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9889783109671861</v>
+        <v>1.264211529400758</v>
       </c>
       <c r="D10">
-        <v>0.9932824450637388</v>
+        <v>0.7785929945128465</v>
       </c>
       <c r="E10">
-        <v>0.9889783109671861</v>
+        <v>1.264211529400758</v>
       </c>
       <c r="F10">
-        <v>1.007170135107538</v>
+        <v>1.13045919756546</v>
       </c>
       <c r="G10">
-        <v>1.002505319093087</v>
+        <v>0.9991621560381864</v>
       </c>
       <c r="H10">
-        <v>0.9905722075270861</v>
+        <v>0.8384897275663157</v>
       </c>
       <c r="I10">
-        <v>1.031374233215704</v>
+        <v>1.707412883365536</v>
       </c>
       <c r="J10">
-        <v>0.9932824450637388</v>
+        <v>0.7785929945128465</v>
       </c>
       <c r="K10">
-        <v>0.9932824450637388</v>
+        <v>0.7785929945128465</v>
       </c>
       <c r="L10">
-        <v>1.007170135107538</v>
+        <v>1.13045919756546</v>
       </c>
       <c r="M10">
-        <v>0.9980742230373618</v>
+        <v>1.197335363483109</v>
       </c>
       <c r="N10">
-        <v>0.9980742230373618</v>
+        <v>1.197335363483109</v>
       </c>
       <c r="O10">
-        <v>0.9955735512006032</v>
+        <v>1.077720151510844</v>
       </c>
       <c r="P10">
-        <v>0.9964769637128207</v>
+        <v>1.057754573826355</v>
       </c>
       <c r="Q10">
-        <v>0.9964769637128207</v>
+        <v>1.057754573826355</v>
       </c>
       <c r="R10">
-        <v>0.9956783340505502</v>
+        <v>0.9879641789979777</v>
       </c>
       <c r="S10">
-        <v>0.9956783340505502</v>
+        <v>0.9879641789979777</v>
       </c>
       <c r="T10">
-        <v>1.00231377516239</v>
+        <v>1.119721414741517</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9809614646182505</v>
+        <v>0.9577712069399752</v>
       </c>
       <c r="D11">
-        <v>0.988777826648669</v>
+        <v>1.034479178845978</v>
       </c>
       <c r="E11">
-        <v>0.9809614646182505</v>
+        <v>0.9577712069399752</v>
       </c>
       <c r="F11">
-        <v>1.012942801312521</v>
+        <v>1.005036872929155</v>
       </c>
       <c r="G11">
-        <v>1.004777158589736</v>
+        <v>1.012272688972441</v>
       </c>
       <c r="H11">
-        <v>0.9839587087785814</v>
+        <v>0.9746342397859852</v>
       </c>
       <c r="I11">
-        <v>1.04964658044853</v>
+        <v>0.9985629398229374</v>
       </c>
       <c r="J11">
-        <v>0.988777826648669</v>
+        <v>1.034479178845978</v>
       </c>
       <c r="K11">
-        <v>0.988777826648669</v>
+        <v>1.034479178845978</v>
       </c>
       <c r="L11">
-        <v>1.012942801312521</v>
+        <v>1.005036872929155</v>
       </c>
       <c r="M11">
-        <v>0.996952132965386</v>
+        <v>0.9814040399345654</v>
       </c>
       <c r="N11">
-        <v>0.996952132965386</v>
+        <v>0.9814040399345654</v>
       </c>
       <c r="O11">
-        <v>0.9926209915697844</v>
+        <v>0.9791474398850387</v>
       </c>
       <c r="P11">
-        <v>0.9942273641931471</v>
+        <v>0.9990957529050362</v>
       </c>
       <c r="Q11">
-        <v>0.9942273641931471</v>
+        <v>0.999095752905036</v>
       </c>
       <c r="R11">
-        <v>0.9928649798070275</v>
+        <v>1.007941609390271</v>
       </c>
       <c r="S11">
-        <v>0.9928649798070275</v>
+        <v>1.007941609390271</v>
       </c>
       <c r="T11">
-        <v>1.003510756732715</v>
+        <v>0.9971261878827452</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.016718304143196</v>
+        <v>0.9826643864733092</v>
       </c>
       <c r="D12">
-        <v>1.306553329187661</v>
+        <v>1.015867192227414</v>
       </c>
       <c r="E12">
-        <v>1.016718304143196</v>
+        <v>0.9826643864733092</v>
       </c>
       <c r="F12">
-        <v>0.8044022550594857</v>
+        <v>1.002201347999709</v>
       </c>
       <c r="G12">
-        <v>0.9545421566353679</v>
+        <v>1.005381705755721</v>
       </c>
       <c r="H12">
-        <v>1.151268193834164</v>
+        <v>0.9877643982049954</v>
       </c>
       <c r="I12">
-        <v>0.3915914898314264</v>
+        <v>1.002276692832339</v>
       </c>
       <c r="J12">
-        <v>1.306553329187661</v>
+        <v>1.015867192227414</v>
       </c>
       <c r="K12">
-        <v>1.306553329187661</v>
+        <v>1.015867192227414</v>
       </c>
       <c r="L12">
-        <v>0.8044022550594857</v>
+        <v>1.002201347999709</v>
       </c>
       <c r="M12">
-        <v>0.9105602796013406</v>
+        <v>0.992432867236509</v>
       </c>
       <c r="N12">
-        <v>0.9105602796013406</v>
+        <v>0.992432867236509</v>
       </c>
       <c r="O12">
-        <v>0.9907962510122816</v>
+        <v>0.9908767108926712</v>
       </c>
       <c r="P12">
-        <v>1.04255796279678</v>
+        <v>1.000244308900144</v>
       </c>
       <c r="Q12">
-        <v>1.042557962796781</v>
+        <v>1.000244308900144</v>
       </c>
       <c r="R12">
-        <v>1.108556804394501</v>
+        <v>1.004150029731962</v>
       </c>
       <c r="S12">
-        <v>1.108556804394501</v>
+        <v>1.004150029731962</v>
       </c>
       <c r="T12">
-        <v>0.9375126214485499</v>
+        <v>0.9993592872489147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.220097920298576</v>
+        <v>0.9406560536680859</v>
       </c>
       <c r="D13">
-        <v>0.8282507625880421</v>
+        <v>1.056438154345439</v>
       </c>
       <c r="E13">
-        <v>1.220097920298576</v>
+        <v>0.9406560536680859</v>
       </c>
       <c r="F13">
-        <v>1.045599442459515</v>
+        <v>1.006789231717923</v>
       </c>
       <c r="G13">
-        <v>0.9803007820091709</v>
+        <v>1.018527335203436</v>
       </c>
       <c r="H13">
-        <v>1.026463273013141</v>
+        <v>0.9582311857820236</v>
       </c>
       <c r="I13">
-        <v>1.10316431461687</v>
+        <v>1.004258960643612</v>
       </c>
       <c r="J13">
-        <v>0.8282507625880421</v>
+        <v>1.056438154345439</v>
       </c>
       <c r="K13">
-        <v>0.8282507625880421</v>
+        <v>1.056438154345439</v>
       </c>
       <c r="L13">
-        <v>1.045599442459515</v>
+        <v>1.006789231717923</v>
       </c>
       <c r="M13">
-        <v>1.132848681379046</v>
+        <v>0.9737226426930047</v>
       </c>
       <c r="N13">
-        <v>1.132848681379046</v>
+        <v>0.9737226426930047</v>
       </c>
       <c r="O13">
-        <v>1.097386878590411</v>
+        <v>0.9685588237226778</v>
       </c>
       <c r="P13">
-        <v>1.031316041782045</v>
+        <v>1.001294479910483</v>
       </c>
       <c r="Q13">
-        <v>1.031316041782045</v>
+        <v>1.001294479910483</v>
       </c>
       <c r="R13">
-        <v>0.980549721983544</v>
+        <v>1.015080398519222</v>
       </c>
       <c r="S13">
-        <v>0.980549721983544</v>
+        <v>1.015080398519222</v>
       </c>
       <c r="T13">
-        <v>1.033979415830886</v>
+        <v>0.9974834868934198</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9064318062972869</v>
+        <v>0.8950174648749075</v>
       </c>
       <c r="D14">
-        <v>1.299238763673717</v>
+        <v>1.091894320488533</v>
       </c>
       <c r="E14">
-        <v>0.9064318062972869</v>
+        <v>0.8950174648749075</v>
       </c>
       <c r="F14">
-        <v>0.8220856183483974</v>
+        <v>1.010706214569186</v>
       </c>
       <c r="G14">
-        <v>0.9559355432670433</v>
+        <v>1.03034037192125</v>
       </c>
       <c r="H14">
-        <v>1.162669017626981</v>
+        <v>0.9349718251148751</v>
       </c>
       <c r="I14">
-        <v>0.3653633047128017</v>
+        <v>0.9981140194285576</v>
       </c>
       <c r="J14">
-        <v>1.299238763673717</v>
+        <v>1.091894320488533</v>
       </c>
       <c r="K14">
-        <v>1.299238763673717</v>
+        <v>1.091894320488533</v>
       </c>
       <c r="L14">
-        <v>0.8220856183483974</v>
+        <v>1.010706214569186</v>
       </c>
       <c r="M14">
-        <v>0.8642587123228422</v>
+        <v>0.952861839722047</v>
       </c>
       <c r="N14">
-        <v>0.8642587123228422</v>
+        <v>0.952861839722047</v>
       </c>
       <c r="O14">
-        <v>0.9637288140908883</v>
+        <v>0.9468985015196564</v>
       </c>
       <c r="P14">
-        <v>1.009252062773134</v>
+        <v>0.9992059999775421</v>
       </c>
       <c r="Q14">
-        <v>1.009252062773134</v>
+        <v>0.9992059999775421</v>
       </c>
       <c r="R14">
-        <v>1.08174873799828</v>
+        <v>1.02237808010529</v>
       </c>
       <c r="S14">
-        <v>1.08174873799828</v>
+        <v>1.02237808010529</v>
       </c>
       <c r="T14">
-        <v>0.9186206756543712</v>
+        <v>0.9935073693995515</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.347075039476081</v>
+        <v>0.9625310150665568</v>
       </c>
       <c r="D15">
-        <v>0.8665237636107087</v>
+        <v>1.034435656193435</v>
       </c>
       <c r="E15">
-        <v>1.347075039476081</v>
+        <v>0.9625310150665568</v>
       </c>
       <c r="F15">
-        <v>1.030009634818634</v>
+        <v>1.004038729617242</v>
       </c>
       <c r="G15">
-        <v>0.9835968463244489</v>
+        <v>1.011315101873817</v>
       </c>
       <c r="H15">
-        <v>1.000306395449703</v>
+        <v>0.9761098238031254</v>
       </c>
       <c r="I15">
-        <v>1.100786876420988</v>
+        <v>0.9969793140920128</v>
       </c>
       <c r="J15">
-        <v>0.8665237636107087</v>
+        <v>1.034435656193435</v>
       </c>
       <c r="K15">
-        <v>0.8665237636107087</v>
+        <v>1.034435656193435</v>
       </c>
       <c r="L15">
-        <v>1.030009634818634</v>
+        <v>1.004038729617242</v>
       </c>
       <c r="M15">
-        <v>1.188542337147358</v>
+        <v>0.9832848723418994</v>
       </c>
       <c r="N15">
-        <v>1.188542337147358</v>
+        <v>0.9832848723418994</v>
       </c>
       <c r="O15">
-        <v>1.125797023248139</v>
+        <v>0.9808931894956414</v>
       </c>
       <c r="P15">
-        <v>1.081202812635141</v>
+        <v>1.000335133625745</v>
       </c>
       <c r="Q15">
-        <v>1.081202812635141</v>
+        <v>1.000335133625745</v>
       </c>
       <c r="R15">
-        <v>1.027533050379033</v>
+        <v>1.008860264267667</v>
       </c>
       <c r="S15">
-        <v>1.027533050379033</v>
+        <v>1.008860264267667</v>
       </c>
       <c r="T15">
-        <v>1.054716426016761</v>
+        <v>0.9975682734410315</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.261414683597813</v>
+        <v>0.9261994985095362</v>
       </c>
       <c r="D16">
-        <v>1.607273559223628</v>
+        <v>1.064628966246604</v>
       </c>
       <c r="E16">
-        <v>0.261414683597813</v>
+        <v>0.9261994985095362</v>
       </c>
       <c r="F16">
-        <v>1.082744349725461</v>
+        <v>1.007997753761681</v>
       </c>
       <c r="G16">
-        <v>1.212464057747444</v>
+        <v>1.021613889446317</v>
       </c>
       <c r="H16">
-        <v>0.5518848741830225</v>
+        <v>0.9544634774574785</v>
       </c>
       <c r="I16">
-        <v>1.008257853313585</v>
+        <v>0.9958493136187239</v>
       </c>
       <c r="J16">
-        <v>1.607273559223628</v>
+        <v>1.064628966246604</v>
       </c>
       <c r="K16">
-        <v>1.607273559223628</v>
+        <v>1.064628966246604</v>
       </c>
       <c r="L16">
-        <v>1.082744349725461</v>
+        <v>1.007997753761681</v>
       </c>
       <c r="M16">
-        <v>0.6720795166616368</v>
+        <v>0.9670986261356087</v>
       </c>
       <c r="N16">
-        <v>0.6720795166616368</v>
+        <v>0.9670986261356087</v>
       </c>
       <c r="O16">
-        <v>0.632014635835432</v>
+        <v>0.9628869099095653</v>
       </c>
       <c r="P16">
-        <v>0.9838108641823005</v>
+        <v>0.9996087395059403</v>
       </c>
       <c r="Q16">
-        <v>0.9838108641823005</v>
+        <v>0.9996087395059403</v>
       </c>
       <c r="R16">
-        <v>1.139676537942632</v>
+        <v>1.015863796191106</v>
       </c>
       <c r="S16">
-        <v>1.139676537942632</v>
+        <v>1.015863796191106</v>
       </c>
       <c r="T16">
-        <v>0.9540065629651587</v>
+        <v>0.99512548317339</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4428803630333877</v>
+        <v>0.8617024393663375</v>
       </c>
       <c r="D17">
-        <v>1.383560861830021</v>
+        <v>1.12408969782374</v>
       </c>
       <c r="E17">
-        <v>0.4428803630333877</v>
+        <v>0.8617024393663375</v>
       </c>
       <c r="F17">
-        <v>1.088175352494961</v>
+        <v>1.015612715900933</v>
       </c>
       <c r="G17">
-        <v>1.157403670719856</v>
+        <v>1.041039736717601</v>
       </c>
       <c r="H17">
-        <v>0.6494430991633661</v>
+        <v>0.912526591578092</v>
       </c>
       <c r="I17">
-        <v>1.15384974693606</v>
+        <v>0.9946262138485408</v>
       </c>
       <c r="J17">
-        <v>1.383560861830021</v>
+        <v>1.12408969782374</v>
       </c>
       <c r="K17">
-        <v>1.383560861830021</v>
+        <v>1.12408969782374</v>
       </c>
       <c r="L17">
-        <v>1.088175352494961</v>
+        <v>1.015612715900933</v>
       </c>
       <c r="M17">
-        <v>0.7655278577641743</v>
+        <v>0.9386575776336354</v>
       </c>
       <c r="N17">
-        <v>0.7655278577641743</v>
+        <v>0.9386575776336354</v>
       </c>
       <c r="O17">
-        <v>0.7268329382305715</v>
+        <v>0.9299472489484543</v>
       </c>
       <c r="P17">
-        <v>0.9715388591194566</v>
+        <v>1.00046828436367</v>
       </c>
       <c r="Q17">
-        <v>0.9715388591194566</v>
+        <v>1.00046828436367</v>
       </c>
       <c r="R17">
-        <v>1.074544359797098</v>
+        <v>1.031373637728688</v>
       </c>
       <c r="S17">
-        <v>1.074544359797098</v>
+        <v>1.031373637728688</v>
       </c>
       <c r="T17">
-        <v>0.9792188490296088</v>
+        <v>0.9915995658725407</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8052722633200302</v>
+        <v>0.8032758238480378</v>
       </c>
       <c r="D18">
-        <v>0.9383524400640116</v>
+        <v>1.191155418055294</v>
       </c>
       <c r="E18">
-        <v>0.8052722633200302</v>
+        <v>0.8032758238480378</v>
       </c>
       <c r="F18">
-        <v>1.098741032691073</v>
+        <v>1.033834996408027</v>
       </c>
       <c r="G18">
-        <v>1.047723833449932</v>
+        <v>1.061705929225544</v>
       </c>
       <c r="H18">
-        <v>0.8447682011081658</v>
+        <v>0.867479214100162</v>
       </c>
       <c r="I18">
-        <v>1.439122801660673</v>
+        <v>0.9826193390809705</v>
       </c>
       <c r="J18">
-        <v>0.9383524400640116</v>
+        <v>1.191155418055294</v>
       </c>
       <c r="K18">
-        <v>0.9383524400640116</v>
+        <v>1.191155418055294</v>
       </c>
       <c r="L18">
-        <v>1.098741032691073</v>
+        <v>1.033834996408027</v>
       </c>
       <c r="M18">
-        <v>0.9520066480055517</v>
+        <v>0.9185554101280323</v>
       </c>
       <c r="N18">
-        <v>0.9520066480055517</v>
+        <v>0.9185554101280323</v>
       </c>
       <c r="O18">
-        <v>0.9162604990397564</v>
+        <v>0.9015300114520756</v>
       </c>
       <c r="P18">
-        <v>0.9474552453583717</v>
+        <v>1.00942207943712</v>
       </c>
       <c r="Q18">
-        <v>0.9474552453583716</v>
+        <v>1.00942207943712</v>
       </c>
       <c r="R18">
-        <v>0.9451795440347815</v>
+        <v>1.054855414091663</v>
       </c>
       <c r="S18">
-        <v>0.9451795440347815</v>
+        <v>1.054855414091663</v>
       </c>
       <c r="T18">
-        <v>1.028996762048981</v>
+        <v>0.9900117867863392</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8475148957310822</v>
+        <v>0.9986930563890832</v>
       </c>
       <c r="D19">
-        <v>0.8981679774263277</v>
+        <v>0.999120168728345</v>
       </c>
       <c r="E19">
-        <v>0.8475148957310822</v>
+        <v>0.9986930563890832</v>
       </c>
       <c r="F19">
-        <v>1.108367720983582</v>
+        <v>1.000807830280548</v>
       </c>
       <c r="G19">
-        <v>1.041784587414588</v>
+        <v>1.000244744914473</v>
       </c>
       <c r="H19">
-        <v>0.8310284619465833</v>
+        <v>0.9988236459174653</v>
       </c>
       <c r="I19">
-        <v>1.556676779613123</v>
+        <v>1.004407205767999</v>
       </c>
       <c r="J19">
-        <v>0.8981679774263277</v>
+        <v>0.999120168728345</v>
       </c>
       <c r="K19">
-        <v>0.8981679774263277</v>
+        <v>0.999120168728345</v>
       </c>
       <c r="L19">
-        <v>1.108367720983582</v>
+        <v>1.000807830280548</v>
       </c>
       <c r="M19">
-        <v>0.9779413083573318</v>
+        <v>0.9997504433348157</v>
       </c>
       <c r="N19">
-        <v>0.9779413083573318</v>
+        <v>0.9997504433348157</v>
       </c>
       <c r="O19">
-        <v>0.9289703595537491</v>
+        <v>0.9994415108623654</v>
       </c>
       <c r="P19">
-        <v>0.9513501980469972</v>
+        <v>0.9995403517993254</v>
       </c>
       <c r="Q19">
-        <v>0.9513501980469972</v>
+        <v>0.9995403517993253</v>
       </c>
       <c r="R19">
-        <v>0.9380546428918298</v>
+        <v>0.9994353060315803</v>
       </c>
       <c r="S19">
-        <v>0.9380546428918298</v>
+        <v>0.9994353060315803</v>
       </c>
       <c r="T19">
-        <v>1.047256737185881</v>
+        <v>1.000349441999652</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000694614316868</v>
+        <v>0.996460400905622</v>
       </c>
       <c r="D20">
-        <v>1.004437319008121</v>
+        <v>0.9977086384128466</v>
       </c>
       <c r="E20">
-        <v>1.000694614316868</v>
+        <v>0.996460400905622</v>
       </c>
       <c r="F20">
-        <v>0.9975227876629487</v>
+        <v>1.00226432434852</v>
       </c>
       <c r="G20">
-        <v>0.9991806395074418</v>
+        <v>1.000740849664877</v>
       </c>
       <c r="H20">
-        <v>1.000007676564611</v>
+        <v>0.9969683348132208</v>
       </c>
       <c r="I20">
-        <v>1.000298408682302</v>
+        <v>1.010772156482637</v>
       </c>
       <c r="J20">
-        <v>1.004437319008121</v>
+        <v>0.9977086384128466</v>
       </c>
       <c r="K20">
-        <v>1.004437319008121</v>
+        <v>0.9977086384128466</v>
       </c>
       <c r="L20">
-        <v>0.9975227876629487</v>
+        <v>1.00226432434852</v>
       </c>
       <c r="M20">
-        <v>0.9991087009899086</v>
+        <v>0.9993623626270709</v>
       </c>
       <c r="N20">
-        <v>0.9991087009899086</v>
+        <v>0.9993623626270709</v>
       </c>
       <c r="O20">
-        <v>0.9994083595148094</v>
+        <v>0.9985643533557876</v>
       </c>
       <c r="P20">
-        <v>1.000884906995979</v>
+        <v>0.9988111212223295</v>
       </c>
       <c r="Q20">
-        <v>1.000884906995979</v>
+        <v>0.9988111212223295</v>
       </c>
       <c r="R20">
-        <v>1.001773009999015</v>
+        <v>0.9985355005199588</v>
       </c>
       <c r="S20">
-        <v>1.001773009999015</v>
+        <v>0.9985355005199588</v>
       </c>
       <c r="T20">
-        <v>1.000356907623716</v>
+        <v>1.000819117437954</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9988988146214574</v>
+        <v>0.9949434279195543</v>
       </c>
       <c r="D21">
-        <v>0.9916502926353213</v>
+        <v>0.9968190388243835</v>
       </c>
       <c r="E21">
-        <v>0.9988988146214574</v>
+        <v>0.9949434279195543</v>
       </c>
       <c r="F21">
-        <v>1.004175844057033</v>
+        <v>1.003518237515514</v>
       </c>
       <c r="G21">
-        <v>1.001198982816786</v>
+        <v>1.001286653888668</v>
       </c>
       <c r="H21">
-        <v>0.9986086765654106</v>
+        <v>0.9955323113623665</v>
       </c>
       <c r="I21">
-        <v>1.007292169968593</v>
+        <v>1.0141543611823</v>
       </c>
       <c r="J21">
-        <v>0.9916502926353213</v>
+        <v>0.9968190388243835</v>
       </c>
       <c r="K21">
-        <v>0.9916502926353213</v>
+        <v>0.9968190388243835</v>
       </c>
       <c r="L21">
-        <v>1.004175844057033</v>
+        <v>1.003518237515514</v>
       </c>
       <c r="M21">
-        <v>1.001537329339245</v>
+        <v>0.9992308327175343</v>
       </c>
       <c r="N21">
-        <v>1.001537329339245</v>
+        <v>0.9992308327175343</v>
       </c>
       <c r="O21">
-        <v>1.000561111747967</v>
+        <v>0.9979979922658117</v>
       </c>
       <c r="P21">
-        <v>0.9982416504379371</v>
+        <v>0.9984269014198174</v>
       </c>
       <c r="Q21">
-        <v>0.9982416504379371</v>
+        <v>0.9984269014198173</v>
       </c>
       <c r="R21">
-        <v>0.9965938109872832</v>
+        <v>0.9980249357709589</v>
       </c>
       <c r="S21">
-        <v>0.9965938109872832</v>
+        <v>0.9980249357709589</v>
       </c>
       <c r="T21">
-        <v>1.000304130110767</v>
+        <v>1.001042338448798</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9871638293530715</v>
+        <v>0.9889783109671861</v>
       </c>
       <c r="D22">
-        <v>1.028059364851227</v>
+        <v>0.9932824450637388</v>
       </c>
       <c r="E22">
-        <v>0.9871638293530715</v>
+        <v>0.9889783109671861</v>
       </c>
       <c r="F22">
-        <v>0.9939684912719263</v>
+        <v>1.007170135107538</v>
       </c>
       <c r="G22">
-        <v>1.000831055375007</v>
+        <v>1.002505319093087</v>
       </c>
       <c r="H22">
-        <v>0.9924611504511615</v>
+        <v>0.9905722075270861</v>
       </c>
       <c r="I22">
-        <v>0.9963050163687655</v>
+        <v>1.031374233215704</v>
       </c>
       <c r="J22">
-        <v>1.028059364851227</v>
+        <v>0.9932824450637388</v>
       </c>
       <c r="K22">
-        <v>1.028059364851227</v>
+        <v>0.9932824450637388</v>
       </c>
       <c r="L22">
-        <v>0.9939684912719263</v>
+        <v>1.007170135107538</v>
       </c>
       <c r="M22">
-        <v>0.9905661603124989</v>
+        <v>0.9980742230373618</v>
       </c>
       <c r="N22">
-        <v>0.9905661603124989</v>
+        <v>0.9980742230373618</v>
       </c>
       <c r="O22">
-        <v>0.991197823692053</v>
+        <v>0.9955735512006032</v>
       </c>
       <c r="P22">
-        <v>1.003063895158742</v>
+        <v>0.9964769637128207</v>
       </c>
       <c r="Q22">
-        <v>1.003063895158742</v>
+        <v>0.9964769637128207</v>
       </c>
       <c r="R22">
-        <v>1.009312762581863</v>
+        <v>0.9956783340505502</v>
       </c>
       <c r="S22">
-        <v>1.009312762581863</v>
+        <v>0.9956783340505502</v>
       </c>
       <c r="T22">
-        <v>0.9997981512785267</v>
+        <v>1.00231377516239</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9809614646182505</v>
+      </c>
+      <c r="D23">
+        <v>0.988777826648669</v>
+      </c>
+      <c r="E23">
+        <v>0.9809614646182505</v>
+      </c>
+      <c r="F23">
+        <v>1.012942801312521</v>
+      </c>
+      <c r="G23">
+        <v>1.004777158589736</v>
+      </c>
+      <c r="H23">
+        <v>0.9839587087785814</v>
+      </c>
+      <c r="I23">
+        <v>1.04964658044853</v>
+      </c>
+      <c r="J23">
+        <v>0.988777826648669</v>
+      </c>
+      <c r="K23">
+        <v>0.988777826648669</v>
+      </c>
+      <c r="L23">
+        <v>1.012942801312521</v>
+      </c>
+      <c r="M23">
+        <v>0.996952132965386</v>
+      </c>
+      <c r="N23">
+        <v>0.996952132965386</v>
+      </c>
+      <c r="O23">
+        <v>0.9926209915697844</v>
+      </c>
+      <c r="P23">
+        <v>0.9942273641931471</v>
+      </c>
+      <c r="Q23">
+        <v>0.9942273641931471</v>
+      </c>
+      <c r="R23">
+        <v>0.9928649798070275</v>
+      </c>
+      <c r="S23">
+        <v>0.9928649798070275</v>
+      </c>
+      <c r="T23">
+        <v>1.003510756732715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.016718304143196</v>
+      </c>
+      <c r="D24">
+        <v>1.306553329187661</v>
+      </c>
+      <c r="E24">
+        <v>1.016718304143196</v>
+      </c>
+      <c r="F24">
+        <v>0.8044022550594857</v>
+      </c>
+      <c r="G24">
+        <v>0.9545421566353679</v>
+      </c>
+      <c r="H24">
+        <v>1.151268193834164</v>
+      </c>
+      <c r="I24">
+        <v>0.3915914898314264</v>
+      </c>
+      <c r="J24">
+        <v>1.306553329187661</v>
+      </c>
+      <c r="K24">
+        <v>1.306553329187661</v>
+      </c>
+      <c r="L24">
+        <v>0.8044022550594857</v>
+      </c>
+      <c r="M24">
+        <v>0.9105602796013406</v>
+      </c>
+      <c r="N24">
+        <v>0.9105602796013406</v>
+      </c>
+      <c r="O24">
+        <v>0.9907962510122816</v>
+      </c>
+      <c r="P24">
+        <v>1.04255796279678</v>
+      </c>
+      <c r="Q24">
+        <v>1.042557962796781</v>
+      </c>
+      <c r="R24">
+        <v>1.108556804394501</v>
+      </c>
+      <c r="S24">
+        <v>1.108556804394501</v>
+      </c>
+      <c r="T24">
+        <v>0.9375126214485499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.220097920298576</v>
+      </c>
+      <c r="D25">
+        <v>0.8282507625880421</v>
+      </c>
+      <c r="E25">
+        <v>1.220097920298576</v>
+      </c>
+      <c r="F25">
+        <v>1.045599442459515</v>
+      </c>
+      <c r="G25">
+        <v>0.9803007820091709</v>
+      </c>
+      <c r="H25">
+        <v>1.026463273013141</v>
+      </c>
+      <c r="I25">
+        <v>1.10316431461687</v>
+      </c>
+      <c r="J25">
+        <v>0.8282507625880421</v>
+      </c>
+      <c r="K25">
+        <v>0.8282507625880421</v>
+      </c>
+      <c r="L25">
+        <v>1.045599442459515</v>
+      </c>
+      <c r="M25">
+        <v>1.132848681379046</v>
+      </c>
+      <c r="N25">
+        <v>1.132848681379046</v>
+      </c>
+      <c r="O25">
+        <v>1.097386878590411</v>
+      </c>
+      <c r="P25">
+        <v>1.031316041782045</v>
+      </c>
+      <c r="Q25">
+        <v>1.031316041782045</v>
+      </c>
+      <c r="R25">
+        <v>0.980549721983544</v>
+      </c>
+      <c r="S25">
+        <v>0.980549721983544</v>
+      </c>
+      <c r="T25">
+        <v>1.033979415830886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9064318062972869</v>
+      </c>
+      <c r="D26">
+        <v>1.299238763673717</v>
+      </c>
+      <c r="E26">
+        <v>0.9064318062972869</v>
+      </c>
+      <c r="F26">
+        <v>0.8220856183483974</v>
+      </c>
+      <c r="G26">
+        <v>0.9559355432670433</v>
+      </c>
+      <c r="H26">
+        <v>1.162669017626981</v>
+      </c>
+      <c r="I26">
+        <v>0.3653633047128017</v>
+      </c>
+      <c r="J26">
+        <v>1.299238763673717</v>
+      </c>
+      <c r="K26">
+        <v>1.299238763673717</v>
+      </c>
+      <c r="L26">
+        <v>0.8220856183483974</v>
+      </c>
+      <c r="M26">
+        <v>0.8642587123228422</v>
+      </c>
+      <c r="N26">
+        <v>0.8642587123228422</v>
+      </c>
+      <c r="O26">
+        <v>0.9637288140908883</v>
+      </c>
+      <c r="P26">
+        <v>1.009252062773134</v>
+      </c>
+      <c r="Q26">
+        <v>1.009252062773134</v>
+      </c>
+      <c r="R26">
+        <v>1.08174873799828</v>
+      </c>
+      <c r="S26">
+        <v>1.08174873799828</v>
+      </c>
+      <c r="T26">
+        <v>0.9186206756543712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.347075039476081</v>
+      </c>
+      <c r="D27">
+        <v>0.8665237636107087</v>
+      </c>
+      <c r="E27">
+        <v>1.347075039476081</v>
+      </c>
+      <c r="F27">
+        <v>1.030009634818634</v>
+      </c>
+      <c r="G27">
+        <v>0.9835968463244489</v>
+      </c>
+      <c r="H27">
+        <v>1.000306395449703</v>
+      </c>
+      <c r="I27">
+        <v>1.100786876420988</v>
+      </c>
+      <c r="J27">
+        <v>0.8665237636107087</v>
+      </c>
+      <c r="K27">
+        <v>0.8665237636107087</v>
+      </c>
+      <c r="L27">
+        <v>1.030009634818634</v>
+      </c>
+      <c r="M27">
+        <v>1.188542337147358</v>
+      </c>
+      <c r="N27">
+        <v>1.188542337147358</v>
+      </c>
+      <c r="O27">
+        <v>1.125797023248139</v>
+      </c>
+      <c r="P27">
+        <v>1.081202812635141</v>
+      </c>
+      <c r="Q27">
+        <v>1.081202812635141</v>
+      </c>
+      <c r="R27">
+        <v>1.027533050379033</v>
+      </c>
+      <c r="S27">
+        <v>1.027533050379033</v>
+      </c>
+      <c r="T27">
+        <v>1.054716426016761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.261414683597813</v>
+      </c>
+      <c r="D28">
+        <v>1.607273559223628</v>
+      </c>
+      <c r="E28">
+        <v>0.261414683597813</v>
+      </c>
+      <c r="F28">
+        <v>1.082744349725461</v>
+      </c>
+      <c r="G28">
+        <v>1.212464057747444</v>
+      </c>
+      <c r="H28">
+        <v>0.5518848741830225</v>
+      </c>
+      <c r="I28">
+        <v>1.008257853313585</v>
+      </c>
+      <c r="J28">
+        <v>1.607273559223628</v>
+      </c>
+      <c r="K28">
+        <v>1.607273559223628</v>
+      </c>
+      <c r="L28">
+        <v>1.082744349725461</v>
+      </c>
+      <c r="M28">
+        <v>0.6720795166616368</v>
+      </c>
+      <c r="N28">
+        <v>0.6720795166616368</v>
+      </c>
+      <c r="O28">
+        <v>0.632014635835432</v>
+      </c>
+      <c r="P28">
+        <v>0.9838108641823005</v>
+      </c>
+      <c r="Q28">
+        <v>0.9838108641823005</v>
+      </c>
+      <c r="R28">
+        <v>1.139676537942632</v>
+      </c>
+      <c r="S28">
+        <v>1.139676537942632</v>
+      </c>
+      <c r="T28">
+        <v>0.9540065629651587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.4428803630333877</v>
+      </c>
+      <c r="D29">
+        <v>1.383560861830021</v>
+      </c>
+      <c r="E29">
+        <v>0.4428803630333877</v>
+      </c>
+      <c r="F29">
+        <v>1.088175352494961</v>
+      </c>
+      <c r="G29">
+        <v>1.157403670719856</v>
+      </c>
+      <c r="H29">
+        <v>0.6494430991633661</v>
+      </c>
+      <c r="I29">
+        <v>1.15384974693606</v>
+      </c>
+      <c r="J29">
+        <v>1.383560861830021</v>
+      </c>
+      <c r="K29">
+        <v>1.383560861830021</v>
+      </c>
+      <c r="L29">
+        <v>1.088175352494961</v>
+      </c>
+      <c r="M29">
+        <v>0.7655278577641743</v>
+      </c>
+      <c r="N29">
+        <v>0.7655278577641743</v>
+      </c>
+      <c r="O29">
+        <v>0.7268329382305715</v>
+      </c>
+      <c r="P29">
+        <v>0.9715388591194566</v>
+      </c>
+      <c r="Q29">
+        <v>0.9715388591194566</v>
+      </c>
+      <c r="R29">
+        <v>1.074544359797098</v>
+      </c>
+      <c r="S29">
+        <v>1.074544359797098</v>
+      </c>
+      <c r="T29">
+        <v>0.9792188490296088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8052722633200302</v>
+      </c>
+      <c r="D30">
+        <v>0.9383524400640116</v>
+      </c>
+      <c r="E30">
+        <v>0.8052722633200302</v>
+      </c>
+      <c r="F30">
+        <v>1.098741032691073</v>
+      </c>
+      <c r="G30">
+        <v>1.047723833449932</v>
+      </c>
+      <c r="H30">
+        <v>0.8447682011081658</v>
+      </c>
+      <c r="I30">
+        <v>1.439122801660673</v>
+      </c>
+      <c r="J30">
+        <v>0.9383524400640116</v>
+      </c>
+      <c r="K30">
+        <v>0.9383524400640116</v>
+      </c>
+      <c r="L30">
+        <v>1.098741032691073</v>
+      </c>
+      <c r="M30">
+        <v>0.9520066480055517</v>
+      </c>
+      <c r="N30">
+        <v>0.9520066480055517</v>
+      </c>
+      <c r="O30">
+        <v>0.9162604990397564</v>
+      </c>
+      <c r="P30">
+        <v>0.9474552453583717</v>
+      </c>
+      <c r="Q30">
+        <v>0.9474552453583716</v>
+      </c>
+      <c r="R30">
+        <v>0.9451795440347815</v>
+      </c>
+      <c r="S30">
+        <v>0.9451795440347815</v>
+      </c>
+      <c r="T30">
+        <v>1.028996762048981</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8475148957310822</v>
+      </c>
+      <c r="D31">
+        <v>0.8981679774263277</v>
+      </c>
+      <c r="E31">
+        <v>0.8475148957310822</v>
+      </c>
+      <c r="F31">
+        <v>1.108367720983582</v>
+      </c>
+      <c r="G31">
+        <v>1.041784587414588</v>
+      </c>
+      <c r="H31">
+        <v>0.8310284619465833</v>
+      </c>
+      <c r="I31">
+        <v>1.556676779613123</v>
+      </c>
+      <c r="J31">
+        <v>0.8981679774263277</v>
+      </c>
+      <c r="K31">
+        <v>0.8981679774263277</v>
+      </c>
+      <c r="L31">
+        <v>1.108367720983582</v>
+      </c>
+      <c r="M31">
+        <v>0.9779413083573318</v>
+      </c>
+      <c r="N31">
+        <v>0.9779413083573318</v>
+      </c>
+      <c r="O31">
+        <v>0.9289703595537491</v>
+      </c>
+      <c r="P31">
+        <v>0.9513501980469972</v>
+      </c>
+      <c r="Q31">
+        <v>0.9513501980469972</v>
+      </c>
+      <c r="R31">
+        <v>0.9380546428918298</v>
+      </c>
+      <c r="S31">
+        <v>0.9380546428918298</v>
+      </c>
+      <c r="T31">
+        <v>1.047256737185881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.08035632517808219</v>
+      </c>
+      <c r="D32">
+        <v>1.810999342739726</v>
+      </c>
+      <c r="E32">
+        <v>0.08035632517808219</v>
+      </c>
+      <c r="F32">
+        <v>1.088010829863014</v>
+      </c>
+      <c r="G32">
+        <v>1.268581250684931</v>
+      </c>
+      <c r="H32">
+        <v>0.4541245906849315</v>
+      </c>
+      <c r="I32">
+        <v>0.8750664709589038</v>
+      </c>
+      <c r="J32">
+        <v>1.810999342739726</v>
+      </c>
+      <c r="K32">
+        <v>1.810999342739726</v>
+      </c>
+      <c r="L32">
+        <v>1.088010829863014</v>
+      </c>
+      <c r="M32">
+        <v>0.5841835775205479</v>
+      </c>
+      <c r="N32">
+        <v>0.5841835775205479</v>
+      </c>
+      <c r="O32">
+        <v>0.5408305819086757</v>
+      </c>
+      <c r="P32">
+        <v>0.9931221659269407</v>
+      </c>
+      <c r="Q32">
+        <v>0.9931221659269407</v>
+      </c>
+      <c r="R32">
+        <v>1.197591460130137</v>
+      </c>
+      <c r="S32">
+        <v>1.197591460130137</v>
+      </c>
+      <c r="T32">
+        <v>0.9295231350182647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.3933087695894736</v>
+      </c>
+      <c r="D33">
+        <v>1.177390777894737</v>
+      </c>
+      <c r="E33">
+        <v>0.3933087695894736</v>
+      </c>
+      <c r="F33">
+        <v>1.057788661578947</v>
+      </c>
+      <c r="G33">
+        <v>1.080367150526316</v>
+      </c>
+      <c r="H33">
+        <v>0.8303461894210529</v>
+      </c>
+      <c r="I33">
+        <v>1.162601513526316</v>
+      </c>
+      <c r="J33">
+        <v>1.177390777894737</v>
+      </c>
+      <c r="K33">
+        <v>1.177390777894737</v>
+      </c>
+      <c r="L33">
+        <v>1.057788661578947</v>
+      </c>
+      <c r="M33">
+        <v>0.7255487155842104</v>
+      </c>
+      <c r="N33">
+        <v>0.7255487155842104</v>
+      </c>
+      <c r="O33">
+        <v>0.7604812068631578</v>
+      </c>
+      <c r="P33">
+        <v>0.8761627363543859</v>
+      </c>
+      <c r="Q33">
+        <v>0.8761627363543859</v>
+      </c>
+      <c r="R33">
+        <v>0.9514697467394737</v>
+      </c>
+      <c r="S33">
+        <v>0.9514697467394737</v>
+      </c>
+      <c r="T33">
+        <v>0.9503005104228071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.164093479957895</v>
+      </c>
+      <c r="D34">
+        <v>0.7414934536842105</v>
+      </c>
+      <c r="E34">
+        <v>1.164093479957895</v>
+      </c>
+      <c r="F34">
+        <v>1.17140221368421</v>
+      </c>
+      <c r="G34">
+        <v>1.014608361052632</v>
+      </c>
+      <c r="H34">
+        <v>0.7807696282105262</v>
+      </c>
+      <c r="I34">
+        <v>1.912086012105264</v>
+      </c>
+      <c r="J34">
+        <v>0.7414934536842105</v>
+      </c>
+      <c r="K34">
+        <v>0.7414934536842105</v>
+      </c>
+      <c r="L34">
+        <v>1.17140221368421</v>
+      </c>
+      <c r="M34">
+        <v>1.167747846821052</v>
+      </c>
+      <c r="N34">
+        <v>1.167747846821052</v>
+      </c>
+      <c r="O34">
+        <v>1.03875510728421</v>
+      </c>
+      <c r="P34">
+        <v>1.025663049108772</v>
+      </c>
+      <c r="Q34">
+        <v>1.025663049108772</v>
+      </c>
+      <c r="R34">
+        <v>0.9546206502526315</v>
+      </c>
+      <c r="S34">
+        <v>0.9546206502526315</v>
+      </c>
+      <c r="T34">
+        <v>1.130742191449123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4065594975825045</v>
+      </c>
+      <c r="D35">
+        <v>0.5746262172810758</v>
+      </c>
+      <c r="E35">
+        <v>0.4065594975825045</v>
+      </c>
+      <c r="F35">
+        <v>1.349772975467691</v>
+      </c>
+      <c r="G35">
+        <v>1.086124547208454</v>
+      </c>
+      <c r="H35">
+        <v>0.4392907728801271</v>
+      </c>
+      <c r="I35">
+        <v>3.301077028771876</v>
+      </c>
+      <c r="J35">
+        <v>0.5746262172810758</v>
+      </c>
+      <c r="K35">
+        <v>0.5746262172810758</v>
+      </c>
+      <c r="L35">
+        <v>1.349772975467691</v>
+      </c>
+      <c r="M35">
+        <v>0.878166236525098</v>
+      </c>
+      <c r="N35">
+        <v>0.878166236525098</v>
+      </c>
+      <c r="O35">
+        <v>0.7318744153101077</v>
+      </c>
+      <c r="P35">
+        <v>0.7769862301104239</v>
+      </c>
+      <c r="Q35">
+        <v>0.776986230110424</v>
+      </c>
+      <c r="R35">
+        <v>0.7263962269030869</v>
+      </c>
+      <c r="S35">
+        <v>0.7263962269030869</v>
+      </c>
+      <c r="T35">
+        <v>1.192908506531955</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000694614316868</v>
+      </c>
+      <c r="D36">
+        <v>1.004437319008121</v>
+      </c>
+      <c r="E36">
+        <v>1.000694614316868</v>
+      </c>
+      <c r="F36">
+        <v>0.9975227876629487</v>
+      </c>
+      <c r="G36">
+        <v>0.9991806395074418</v>
+      </c>
+      <c r="H36">
+        <v>1.000007676564611</v>
+      </c>
+      <c r="I36">
+        <v>1.000298408682302</v>
+      </c>
+      <c r="J36">
+        <v>1.004437319008121</v>
+      </c>
+      <c r="K36">
+        <v>1.004437319008121</v>
+      </c>
+      <c r="L36">
+        <v>0.9975227876629487</v>
+      </c>
+      <c r="M36">
+        <v>0.9991087009899086</v>
+      </c>
+      <c r="N36">
+        <v>0.9991087009899086</v>
+      </c>
+      <c r="O36">
+        <v>0.9994083595148094</v>
+      </c>
+      <c r="P36">
+        <v>1.000884906995979</v>
+      </c>
+      <c r="Q36">
+        <v>1.000884906995979</v>
+      </c>
+      <c r="R36">
+        <v>1.001773009999015</v>
+      </c>
+      <c r="S36">
+        <v>1.001773009999015</v>
+      </c>
+      <c r="T36">
+        <v>1.000356907623716</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9988988146214574</v>
+      </c>
+      <c r="D37">
+        <v>0.9916502926353213</v>
+      </c>
+      <c r="E37">
+        <v>0.9988988146214574</v>
+      </c>
+      <c r="F37">
+        <v>1.004175844057033</v>
+      </c>
+      <c r="G37">
+        <v>1.001198982816786</v>
+      </c>
+      <c r="H37">
+        <v>0.9986086765654106</v>
+      </c>
+      <c r="I37">
+        <v>1.007292169968593</v>
+      </c>
+      <c r="J37">
+        <v>0.9916502926353213</v>
+      </c>
+      <c r="K37">
+        <v>0.9916502926353213</v>
+      </c>
+      <c r="L37">
+        <v>1.004175844057033</v>
+      </c>
+      <c r="M37">
+        <v>1.001537329339245</v>
+      </c>
+      <c r="N37">
+        <v>1.001537329339245</v>
+      </c>
+      <c r="O37">
+        <v>1.000561111747967</v>
+      </c>
+      <c r="P37">
+        <v>0.9982416504379371</v>
+      </c>
+      <c r="Q37">
+        <v>0.9982416504379371</v>
+      </c>
+      <c r="R37">
+        <v>0.9965938109872832</v>
+      </c>
+      <c r="S37">
+        <v>0.9965938109872832</v>
+      </c>
+      <c r="T37">
+        <v>1.000304130110767</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9871638293530715</v>
+      </c>
+      <c r="D38">
+        <v>1.028059364851227</v>
+      </c>
+      <c r="E38">
+        <v>0.9871638293530715</v>
+      </c>
+      <c r="F38">
+        <v>0.9939684912719263</v>
+      </c>
+      <c r="G38">
+        <v>1.000831055375007</v>
+      </c>
+      <c r="H38">
+        <v>0.9924611504511615</v>
+      </c>
+      <c r="I38">
+        <v>0.9963050163687655</v>
+      </c>
+      <c r="J38">
+        <v>1.028059364851227</v>
+      </c>
+      <c r="K38">
+        <v>1.028059364851227</v>
+      </c>
+      <c r="L38">
+        <v>0.9939684912719263</v>
+      </c>
+      <c r="M38">
+        <v>0.9905661603124989</v>
+      </c>
+      <c r="N38">
+        <v>0.9905661603124989</v>
+      </c>
+      <c r="O38">
+        <v>0.991197823692053</v>
+      </c>
+      <c r="P38">
+        <v>1.003063895158742</v>
+      </c>
+      <c r="Q38">
+        <v>1.003063895158742</v>
+      </c>
+      <c r="R38">
+        <v>1.009312762581863</v>
+      </c>
+      <c r="S38">
+        <v>1.009312762581863</v>
+      </c>
+      <c r="T38">
+        <v>0.9997981512785267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9696006991939939</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.099671761677133</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9696006991939939</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9684738962585434</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.001651426352629</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9812010197801466</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9682954899088356</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.099671761677133</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.099671761677133</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9684738962585434</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9690372977262687</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9690372977262687</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9730918717442281</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.012582119043224</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.012582119043224</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.034354529701701</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.034354529701701</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9981490488618804</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8467342077039928</v>
+      </c>
+      <c r="D40">
+        <v>1.202805156622619</v>
+      </c>
+      <c r="E40">
+        <v>0.8467342077039928</v>
+      </c>
+      <c r="F40">
+        <v>0.9656179268097479</v>
+      </c>
+      <c r="G40">
+        <v>1.028876638945481</v>
+      </c>
+      <c r="H40">
+        <v>0.9266515381884093</v>
+      </c>
+      <c r="I40">
+        <v>0.9471340049987192</v>
+      </c>
+      <c r="J40">
+        <v>1.202805156622619</v>
+      </c>
+      <c r="K40">
+        <v>1.202805156622619</v>
+      </c>
+      <c r="L40">
+        <v>0.9656179268097479</v>
+      </c>
+      <c r="M40">
+        <v>0.9061760672568704</v>
+      </c>
+      <c r="N40">
+        <v>0.9061760672568704</v>
+      </c>
+      <c r="O40">
+        <v>0.9130012242340501</v>
+      </c>
+      <c r="P40">
+        <v>1.005052430378787</v>
+      </c>
+      <c r="Q40">
+        <v>1.005052430378787</v>
+      </c>
+      <c r="R40">
+        <v>1.054490611939745</v>
+      </c>
+      <c r="S40">
+        <v>1.054490611939745</v>
+      </c>
+      <c r="T40">
+        <v>0.9863032455448281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.108951455299547</v>
+      </c>
+      <c r="D41">
+        <v>0.9596163811653922</v>
+      </c>
+      <c r="E41">
+        <v>1.108951455299547</v>
+      </c>
+      <c r="F41">
+        <v>0.9798794156536829</v>
+      </c>
+      <c r="G41">
+        <v>0.9754976735153903</v>
+      </c>
+      <c r="H41">
+        <v>1.040476240778045</v>
+      </c>
+      <c r="I41">
+        <v>1.00745811775648</v>
+      </c>
+      <c r="J41">
+        <v>0.9596163811653922</v>
+      </c>
+      <c r="K41">
+        <v>0.9596163811653922</v>
+      </c>
+      <c r="L41">
+        <v>0.9798794156536829</v>
+      </c>
+      <c r="M41">
+        <v>1.044415435476615</v>
+      </c>
+      <c r="N41">
+        <v>1.044415435476615</v>
+      </c>
+      <c r="O41">
+        <v>1.043102370577092</v>
+      </c>
+      <c r="P41">
+        <v>1.016149084039541</v>
+      </c>
+      <c r="Q41">
+        <v>1.016149084039541</v>
+      </c>
+      <c r="R41">
+        <v>1.002015908321004</v>
+      </c>
+      <c r="S41">
+        <v>1.002015908321004</v>
+      </c>
+      <c r="T41">
+        <v>1.011979880694756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.4844863286771054</v>
+      </c>
+      <c r="D42">
+        <v>1.283342352207672</v>
+      </c>
+      <c r="E42">
+        <v>0.4844863286771054</v>
+      </c>
+      <c r="F42">
+        <v>1.06071710894114</v>
+      </c>
+      <c r="G42">
+        <v>1.120281922446534</v>
+      </c>
+      <c r="H42">
+        <v>0.7411996984223221</v>
+      </c>
+      <c r="I42">
+        <v>1.134772074003785</v>
+      </c>
+      <c r="J42">
+        <v>1.283342352207672</v>
+      </c>
+      <c r="K42">
+        <v>1.283342352207672</v>
+      </c>
+      <c r="L42">
+        <v>1.06071710894114</v>
+      </c>
+      <c r="M42">
+        <v>0.7726017188091228</v>
+      </c>
+      <c r="N42">
+        <v>0.7726017188091228</v>
+      </c>
+      <c r="O42">
+        <v>0.7621343786801892</v>
+      </c>
+      <c r="P42">
+        <v>0.9428485966086391</v>
+      </c>
+      <c r="Q42">
+        <v>0.9428485966086391</v>
+      </c>
+      <c r="R42">
+        <v>1.027972035508397</v>
+      </c>
+      <c r="S42">
+        <v>1.027972035508397</v>
+      </c>
+      <c r="T42">
+        <v>0.9707999141164265</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.034435656193434</v>
+        <v>0.996460400905622</v>
       </c>
       <c r="D3">
-        <v>0.9625310150665568</v>
+        <v>0.9977086384128466</v>
       </c>
       <c r="E3">
-        <v>1.004038729617242</v>
+        <v>0.996460400905622</v>
       </c>
       <c r="F3">
-        <v>1.034435656193434</v>
+        <v>1.00226432434852</v>
       </c>
       <c r="G3">
-        <v>0.9969793140920128</v>
+        <v>1.000740849664877</v>
       </c>
       <c r="H3">
-        <v>0.9761098238031254</v>
+        <v>0.9969683348132208</v>
       </c>
       <c r="I3">
-        <v>1.011315101873817</v>
+        <v>1.010772156482637</v>
       </c>
       <c r="J3">
-        <v>0.9625310150665568</v>
+        <v>0.9977086384128466</v>
       </c>
       <c r="K3">
-        <v>1.034435656193434</v>
+        <v>0.9977086384128466</v>
       </c>
       <c r="L3">
-        <v>1.004038729617242</v>
+        <v>1.00226432434852</v>
       </c>
       <c r="M3">
-        <v>0.9832848723418992</v>
+        <v>0.9993623626270709</v>
       </c>
       <c r="N3">
-        <v>0.9832848723418992</v>
+        <v>0.9993623626270709</v>
       </c>
       <c r="O3">
-        <v>0.9808931894956413</v>
+        <v>0.9985643533557876</v>
       </c>
       <c r="P3">
-        <v>1.000335133625744</v>
+        <v>0.9988111212223295</v>
       </c>
       <c r="Q3">
-        <v>1.000335133625744</v>
+        <v>0.9988111212223295</v>
       </c>
       <c r="R3">
-        <v>1.008860264267667</v>
+        <v>0.9985355005199588</v>
       </c>
       <c r="S3">
-        <v>1.008860264267667</v>
+        <v>0.9985355005199588</v>
       </c>
       <c r="T3">
-        <v>0.9975682734410313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000819117437954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.064628966246604</v>
+        <v>0.8467342077039928</v>
       </c>
       <c r="D4">
-        <v>0.9261994985095362</v>
+        <v>1.202805156622619</v>
       </c>
       <c r="E4">
-        <v>1.007997753761681</v>
+        <v>0.8467342077039928</v>
       </c>
       <c r="F4">
-        <v>1.064628966246604</v>
+        <v>0.9656179268097479</v>
       </c>
       <c r="G4">
-        <v>0.9958493136187239</v>
+        <v>1.028876638945481</v>
       </c>
       <c r="H4">
-        <v>0.9544634774574785</v>
+        <v>0.9266515381884093</v>
       </c>
       <c r="I4">
-        <v>1.021613889446317</v>
+        <v>0.9471340049987192</v>
       </c>
       <c r="J4">
-        <v>0.9261994985095362</v>
+        <v>1.202805156622619</v>
       </c>
       <c r="K4">
-        <v>1.064628966246604</v>
+        <v>1.202805156622619</v>
       </c>
       <c r="L4">
-        <v>1.007997753761681</v>
+        <v>0.9656179268097479</v>
       </c>
       <c r="M4">
-        <v>0.9670986261356087</v>
+        <v>0.9061760672568704</v>
       </c>
       <c r="N4">
-        <v>0.9670986261356087</v>
+        <v>0.9061760672568704</v>
       </c>
       <c r="O4">
-        <v>0.9628869099095653</v>
+        <v>0.9130012242340501</v>
       </c>
       <c r="P4">
-        <v>0.9996087395059403</v>
+        <v>1.005052430378787</v>
       </c>
       <c r="Q4">
-        <v>0.9996087395059403</v>
+        <v>1.005052430378787</v>
       </c>
       <c r="R4">
-        <v>1.015863796191106</v>
+        <v>1.054490611939745</v>
       </c>
       <c r="S4">
-        <v>1.015863796191106</v>
+        <v>1.054490611939745</v>
       </c>
       <c r="T4">
-        <v>0.99512548317339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9863032455448281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.124089697823741</v>
+        <v>0.7756437506829967</v>
       </c>
       <c r="D5">
-        <v>0.8617024393663375</v>
+        <v>0.9368374728098023</v>
       </c>
       <c r="E5">
-        <v>1.015612715900933</v>
+        <v>0.7756437506829967</v>
       </c>
       <c r="F5">
-        <v>1.124089697823741</v>
+        <v>1.110952635619598</v>
       </c>
       <c r="G5">
-        <v>0.9946262138485408</v>
+        <v>1.053443187853023</v>
       </c>
       <c r="H5">
-        <v>0.912526591578092</v>
+        <v>0.8156876629214705</v>
       </c>
       <c r="I5">
-        <v>1.041039736717601</v>
+        <v>1.527258129244962</v>
       </c>
       <c r="J5">
-        <v>0.8617024393663375</v>
+        <v>0.9368374728098023</v>
       </c>
       <c r="K5">
-        <v>1.124089697823741</v>
+        <v>0.9368374728098023</v>
       </c>
       <c r="L5">
-        <v>1.015612715900933</v>
+        <v>1.110952635619598</v>
       </c>
       <c r="M5">
-        <v>0.9386575776336354</v>
+        <v>0.9432981931512976</v>
       </c>
       <c r="N5">
-        <v>0.9386575776336354</v>
+        <v>0.9432981931512976</v>
       </c>
       <c r="O5">
-        <v>0.9299472489484543</v>
+        <v>0.9007613497413552</v>
       </c>
       <c r="P5">
-        <v>1.000468284363671</v>
+        <v>0.9411446197041325</v>
       </c>
       <c r="Q5">
-        <v>1.000468284363671</v>
+        <v>0.9411446197041325</v>
       </c>
       <c r="R5">
-        <v>1.031373637728688</v>
+        <v>0.9400678329805501</v>
       </c>
       <c r="S5">
-        <v>1.031373637728688</v>
+        <v>0.9400678329805501</v>
       </c>
       <c r="T5">
-        <v>0.9915995658725407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.036637139855309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.191155418055294</v>
+        <v>0.4065594975825045</v>
       </c>
       <c r="D6">
-        <v>0.8032758238480378</v>
+        <v>0.5746262172810758</v>
       </c>
       <c r="E6">
-        <v>1.033834996408027</v>
+        <v>0.4065594975825045</v>
       </c>
       <c r="F6">
-        <v>1.191155418055294</v>
+        <v>1.349772975467691</v>
       </c>
       <c r="G6">
-        <v>0.9826193390809704</v>
+        <v>1.086124547208454</v>
       </c>
       <c r="H6">
-        <v>0.867479214100162</v>
+        <v>0.4392907728801271</v>
       </c>
       <c r="I6">
-        <v>1.061705929225544</v>
+        <v>3.301077028771876</v>
       </c>
       <c r="J6">
-        <v>0.8032758238480378</v>
+        <v>0.5746262172810758</v>
       </c>
       <c r="K6">
-        <v>1.191155418055294</v>
+        <v>0.5746262172810758</v>
       </c>
       <c r="L6">
-        <v>1.033834996408027</v>
+        <v>1.349772975467691</v>
       </c>
       <c r="M6">
-        <v>0.9185554101280323</v>
+        <v>0.878166236525098</v>
       </c>
       <c r="N6">
-        <v>0.9185554101280323</v>
+        <v>0.878166236525098</v>
       </c>
       <c r="O6">
-        <v>0.9015300114520756</v>
+        <v>0.7318744153101077</v>
       </c>
       <c r="P6">
-        <v>1.00942207943712</v>
+        <v>0.7769862301104239</v>
       </c>
       <c r="Q6">
-        <v>1.00942207943712</v>
+        <v>0.776986230110424</v>
       </c>
       <c r="R6">
-        <v>1.054855414091663</v>
+        <v>0.7263962269030869</v>
       </c>
       <c r="S6">
-        <v>1.054855414091663</v>
+        <v>0.7263962269030869</v>
       </c>
       <c r="T6">
-        <v>0.9900117867863392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.192908506531955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999120168728345</v>
+        <v>0.9577712069399752</v>
       </c>
       <c r="D7">
-        <v>0.9986930563890842</v>
+        <v>1.034479178845978</v>
       </c>
       <c r="E7">
-        <v>1.000807830280548</v>
+        <v>0.9577712069399752</v>
       </c>
       <c r="F7">
-        <v>0.999120168728345</v>
+        <v>1.005036872929155</v>
       </c>
       <c r="G7">
-        <v>1.004407205767999</v>
+        <v>1.012272688972441</v>
       </c>
       <c r="H7">
-        <v>0.9988236459174655</v>
+        <v>0.9746342397859852</v>
       </c>
       <c r="I7">
-        <v>1.000244744914473</v>
+        <v>0.9985629398229374</v>
       </c>
       <c r="J7">
-        <v>0.9986930563890842</v>
+        <v>1.034479178845978</v>
       </c>
       <c r="K7">
-        <v>0.999120168728345</v>
+        <v>1.034479178845978</v>
       </c>
       <c r="L7">
-        <v>1.000807830280548</v>
+        <v>1.005036872929155</v>
       </c>
       <c r="M7">
-        <v>0.9997504433348161</v>
+        <v>0.9814040399345654</v>
       </c>
       <c r="N7">
-        <v>0.9997504433348161</v>
+        <v>0.9814040399345654</v>
       </c>
       <c r="O7">
-        <v>0.9994415108623659</v>
+        <v>0.9791474398850387</v>
       </c>
       <c r="P7">
-        <v>0.9995403517993258</v>
+        <v>0.9990957529050362</v>
       </c>
       <c r="Q7">
-        <v>0.9995403517993258</v>
+        <v>0.999095752905036</v>
       </c>
       <c r="R7">
-        <v>0.9994353060315806</v>
+        <v>1.007941609390271</v>
       </c>
       <c r="S7">
-        <v>0.9994353060315806</v>
+        <v>1.007941609390271</v>
       </c>
       <c r="T7">
-        <v>1.000349441999653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9971261878827452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.997708638412847</v>
+        <v>0.9988988146214574</v>
       </c>
       <c r="D8">
-        <v>0.9964604009056228</v>
+        <v>0.9916502926353213</v>
       </c>
       <c r="E8">
-        <v>1.00226432434852</v>
+        <v>0.9988988146214574</v>
       </c>
       <c r="F8">
-        <v>0.997708638412847</v>
+        <v>1.004175844057033</v>
       </c>
       <c r="G8">
-        <v>1.010772156482636</v>
+        <v>1.001198982816786</v>
       </c>
       <c r="H8">
-        <v>0.996968334813221</v>
+        <v>0.9986086765654106</v>
       </c>
       <c r="I8">
-        <v>1.000740849664878</v>
+        <v>1.007292169968593</v>
       </c>
       <c r="J8">
-        <v>0.9964604009056228</v>
+        <v>0.9916502926353213</v>
       </c>
       <c r="K8">
-        <v>0.997708638412847</v>
+        <v>0.9916502926353213</v>
       </c>
       <c r="L8">
-        <v>1.00226432434852</v>
+        <v>1.004175844057033</v>
       </c>
       <c r="M8">
-        <v>0.9993623626270715</v>
+        <v>1.001537329339245</v>
       </c>
       <c r="N8">
-        <v>0.9993623626270715</v>
+        <v>1.001537329339245</v>
       </c>
       <c r="O8">
-        <v>0.9985643533557879</v>
+        <v>1.000561111747967</v>
       </c>
       <c r="P8">
-        <v>0.99881112122233</v>
+        <v>0.9982416504379371</v>
       </c>
       <c r="Q8">
-        <v>0.9988111212223298</v>
+        <v>0.9982416504379371</v>
       </c>
       <c r="R8">
-        <v>0.9985355005199591</v>
+        <v>0.9965938109872832</v>
       </c>
       <c r="S8">
-        <v>0.9985355005199591</v>
+        <v>0.9965938109872832</v>
       </c>
       <c r="T8">
-        <v>1.000819117437954</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000304130110767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9968190388243835</v>
+        <v>0.9261994985095362</v>
       </c>
       <c r="D9">
-        <v>0.9949434279195543</v>
+        <v>1.064628966246604</v>
       </c>
       <c r="E9">
-        <v>1.003518237515514</v>
+        <v>0.9261994985095362</v>
       </c>
       <c r="F9">
-        <v>0.9968190388243835</v>
+        <v>1.007997753761681</v>
       </c>
       <c r="G9">
-        <v>1.0141543611823</v>
+        <v>1.021613889446317</v>
       </c>
       <c r="H9">
-        <v>0.9955323113623665</v>
+        <v>0.9544634774574785</v>
       </c>
       <c r="I9">
-        <v>1.001286653888668</v>
+        <v>0.9958493136187239</v>
       </c>
       <c r="J9">
-        <v>0.9949434279195543</v>
+        <v>1.064628966246604</v>
       </c>
       <c r="K9">
-        <v>0.9968190388243835</v>
+        <v>1.064628966246604</v>
       </c>
       <c r="L9">
-        <v>1.003518237515514</v>
+        <v>1.007997753761681</v>
       </c>
       <c r="M9">
-        <v>0.9992308327175341</v>
+        <v>0.9670986261356087</v>
       </c>
       <c r="N9">
-        <v>0.9992308327175341</v>
+        <v>0.9670986261356087</v>
       </c>
       <c r="O9">
-        <v>0.9979979922658115</v>
+        <v>0.9628869099095653</v>
       </c>
       <c r="P9">
-        <v>0.9984269014198173</v>
+        <v>0.9996087395059403</v>
       </c>
       <c r="Q9">
-        <v>0.9984269014198173</v>
+        <v>0.9996087395059403</v>
       </c>
       <c r="R9">
-        <v>0.9980249357709589</v>
+        <v>1.015863796191106</v>
       </c>
       <c r="S9">
-        <v>0.9980249357709589</v>
+        <v>1.015863796191106</v>
       </c>
       <c r="T9">
-        <v>1.001042338448798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.99512548317339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9932824450637388</v>
+        <v>0.4191763937963398</v>
       </c>
       <c r="D10">
-        <v>0.9889783109671861</v>
+        <v>0.5598349364530752</v>
       </c>
       <c r="E10">
-        <v>1.007170135107538</v>
+        <v>0.4191763937963398</v>
       </c>
       <c r="F10">
-        <v>0.9932824450637388</v>
+        <v>1.355015867173876</v>
       </c>
       <c r="G10">
-        <v>1.031374233215704</v>
+        <v>1.084979313357704</v>
       </c>
       <c r="H10">
-        <v>0.9905722075270861</v>
+        <v>0.4298908388729901</v>
       </c>
       <c r="I10">
-        <v>1.002505319093087</v>
+        <v>3.355699856612579</v>
       </c>
       <c r="J10">
-        <v>0.9889783109671861</v>
+        <v>0.5598349364530752</v>
       </c>
       <c r="K10">
-        <v>0.9932824450637388</v>
+        <v>0.5598349364530752</v>
       </c>
       <c r="L10">
-        <v>1.007170135107538</v>
+        <v>1.355015867173876</v>
       </c>
       <c r="M10">
-        <v>0.9980742230373618</v>
+        <v>0.887096130485108</v>
       </c>
       <c r="N10">
-        <v>0.9980742230373618</v>
+        <v>0.887096130485108</v>
       </c>
       <c r="O10">
-        <v>0.9955735512006032</v>
+        <v>0.7346943666144021</v>
       </c>
       <c r="P10">
-        <v>0.9964769637128207</v>
+        <v>0.7780090658077637</v>
       </c>
       <c r="Q10">
-        <v>0.9964769637128207</v>
+        <v>0.7780090658077637</v>
       </c>
       <c r="R10">
-        <v>0.9956783340505502</v>
+        <v>0.7234655334690916</v>
       </c>
       <c r="S10">
-        <v>0.9956783340505502</v>
+        <v>0.7234655334690916</v>
       </c>
       <c r="T10">
-        <v>1.00231377516239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.200766201044427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.988777826648669</v>
+        <v>0.9147224887093207</v>
       </c>
       <c r="D11">
-        <v>0.9809614646182505</v>
+        <v>1.178012991853908</v>
       </c>
       <c r="E11">
-        <v>1.012942801312521</v>
+        <v>0.9147224887093207</v>
       </c>
       <c r="F11">
-        <v>0.988777826648669</v>
+        <v>0.959081909499672</v>
       </c>
       <c r="G11">
-        <v>1.04964658044853</v>
+        <v>1.018689172075081</v>
       </c>
       <c r="H11">
-        <v>0.9839587087785814</v>
+        <v>0.9313238927289005</v>
       </c>
       <c r="I11">
-        <v>1.004777158589736</v>
+        <v>1.003603851097015</v>
       </c>
       <c r="J11">
-        <v>0.9809614646182505</v>
+        <v>1.178012991853908</v>
       </c>
       <c r="K11">
-        <v>0.988777826648669</v>
+        <v>1.178012991853908</v>
       </c>
       <c r="L11">
-        <v>1.012942801312521</v>
+        <v>0.959081909499672</v>
       </c>
       <c r="M11">
-        <v>0.996952132965386</v>
+        <v>0.9369021991044963</v>
       </c>
       <c r="N11">
-        <v>0.996952132965386</v>
+        <v>0.9369021991044963</v>
       </c>
       <c r="O11">
-        <v>0.9926209915697844</v>
+        <v>0.9350427636459644</v>
       </c>
       <c r="P11">
-        <v>0.9942273641931471</v>
+        <v>1.0172724633543</v>
       </c>
       <c r="Q11">
-        <v>0.9942273641931471</v>
+        <v>1.0172724633543</v>
       </c>
       <c r="R11">
-        <v>0.9928649798070275</v>
+        <v>1.057457595479202</v>
       </c>
       <c r="S11">
-        <v>0.9928649798070275</v>
+        <v>1.057457595479202</v>
       </c>
       <c r="T11">
-        <v>1.003510756732715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.00090571766065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.306553329187661</v>
+        <v>0.8537564329221045</v>
       </c>
       <c r="D12">
-        <v>1.016718304143196</v>
+        <v>0.8568649104842124</v>
       </c>
       <c r="E12">
-        <v>0.8044022550594857</v>
+        <v>0.8537564329221045</v>
       </c>
       <c r="F12">
-        <v>1.306553329187661</v>
+        <v>1.125967916536845</v>
       </c>
       <c r="G12">
-        <v>0.3915914898314266</v>
+        <v>1.038871113305262</v>
       </c>
       <c r="H12">
-        <v>1.151268193834163</v>
+        <v>0.8155731576789459</v>
       </c>
       <c r="I12">
-        <v>0.9545421566353679</v>
+        <v>1.672114442244215</v>
       </c>
       <c r="J12">
-        <v>1.016718304143196</v>
+        <v>0.8568649104842124</v>
       </c>
       <c r="K12">
-        <v>1.306553329187661</v>
+        <v>0.8568649104842124</v>
       </c>
       <c r="L12">
-        <v>0.8044022550594857</v>
+        <v>1.125967916536845</v>
       </c>
       <c r="M12">
-        <v>0.9105602796013406</v>
+        <v>0.9898621747294745</v>
       </c>
       <c r="N12">
-        <v>0.9105602796013406</v>
+        <v>0.9898621747294745</v>
       </c>
       <c r="O12">
-        <v>0.9907962510122815</v>
+        <v>0.9317658357126316</v>
       </c>
       <c r="P12">
-        <v>1.04255796279678</v>
+        <v>0.945529753314387</v>
       </c>
       <c r="Q12">
-        <v>1.042557962796781</v>
+        <v>0.945529753314387</v>
       </c>
       <c r="R12">
-        <v>1.108556804394501</v>
+        <v>0.9233635426068434</v>
       </c>
       <c r="S12">
-        <v>1.108556804394501</v>
+        <v>0.9233635426068434</v>
       </c>
       <c r="T12">
-        <v>0.93751262144855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.060524662195264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8282507625880423</v>
+        <v>1.243667219781851</v>
       </c>
       <c r="D13">
-        <v>1.220097920298576</v>
+        <v>0.9847931933362133</v>
       </c>
       <c r="E13">
-        <v>1.045599442459515</v>
+        <v>1.243667219781851</v>
       </c>
       <c r="F13">
-        <v>0.8282507625880423</v>
+        <v>0.9287727110014137</v>
       </c>
       <c r="G13">
-        <v>1.10316431461687</v>
+        <v>0.9459025519757938</v>
       </c>
       <c r="H13">
-        <v>1.026463273013141</v>
+        <v>1.123936868557369</v>
       </c>
       <c r="I13">
-        <v>0.9803007820091709</v>
+        <v>0.7800123086255049</v>
       </c>
       <c r="J13">
-        <v>1.220097920298576</v>
+        <v>0.9847931933362133</v>
       </c>
       <c r="K13">
-        <v>0.8282507625880423</v>
+        <v>0.9847931933362133</v>
       </c>
       <c r="L13">
-        <v>1.045599442459515</v>
+        <v>0.9287727110014137</v>
       </c>
       <c r="M13">
-        <v>1.132848681379046</v>
+        <v>1.086219965391632</v>
       </c>
       <c r="N13">
-        <v>1.132848681379046</v>
+        <v>1.086219965391632</v>
       </c>
       <c r="O13">
-        <v>1.097386878590411</v>
+        <v>1.098792266446878</v>
       </c>
       <c r="P13">
-        <v>1.031316041782045</v>
+        <v>1.052411041373159</v>
       </c>
       <c r="Q13">
-        <v>1.031316041782045</v>
+        <v>1.052411041373159</v>
       </c>
       <c r="R13">
-        <v>0.980549721983544</v>
+        <v>1.035506579363923</v>
       </c>
       <c r="S13">
-        <v>0.980549721983544</v>
+        <v>1.035506579363923</v>
       </c>
       <c r="T13">
-        <v>1.033979415830886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.001180808879691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.299238763673717</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="D14">
-        <v>0.9064318062972871</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="E14">
-        <v>0.8220856183483974</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="F14">
-        <v>1.299238763673717</v>
+        <v>1.602552399999997</v>
       </c>
       <c r="G14">
-        <v>0.3653633047128018</v>
+        <v>1.1262586</v>
       </c>
       <c r="H14">
-        <v>1.162669017626981</v>
+        <v>0.02988525700000006</v>
       </c>
       <c r="I14">
-        <v>0.9559355432670432</v>
+        <v>5.166004400000004</v>
       </c>
       <c r="J14">
-        <v>0.9064318062972871</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="K14">
-        <v>1.299238763673717</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="L14">
-        <v>0.8220856183483974</v>
+        <v>1.602552399999997</v>
       </c>
       <c r="M14">
-        <v>0.8642587123228422</v>
+        <v>0.8021758615999985</v>
       </c>
       <c r="N14">
-        <v>0.8642587123228422</v>
+        <v>0.8021758615999985</v>
       </c>
       <c r="O14">
-        <v>0.9637288140908883</v>
+        <v>0.5447456600666657</v>
       </c>
       <c r="P14">
-        <v>1.009252062773134</v>
+        <v>0.6060528677333323</v>
       </c>
       <c r="Q14">
-        <v>1.009252062773134</v>
+        <v>0.6060528677333323</v>
       </c>
       <c r="R14">
-        <v>1.08174873799828</v>
+        <v>0.5079913707999992</v>
       </c>
       <c r="S14">
-        <v>1.08174873799828</v>
+        <v>0.5079913707999992</v>
       </c>
       <c r="T14">
-        <v>0.9186206756543712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.356717810033333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8665237636107087</v>
+        <v>0.14229975</v>
       </c>
       <c r="D15">
-        <v>1.347075039476081</v>
+        <v>0.42160414</v>
       </c>
       <c r="E15">
-        <v>1.030009634818634</v>
+        <v>0.14229975</v>
       </c>
       <c r="F15">
-        <v>0.8665237636107087</v>
+        <v>1.8268479</v>
       </c>
       <c r="G15">
-        <v>1.100786876420988</v>
+        <v>1.3403623</v>
       </c>
       <c r="H15">
-        <v>1.000306395449703</v>
+        <v>0.47327426</v>
       </c>
       <c r="I15">
-        <v>0.9835968463244489</v>
+        <v>1.6025901</v>
       </c>
       <c r="J15">
-        <v>1.347075039476081</v>
+        <v>0.42160414</v>
       </c>
       <c r="K15">
-        <v>0.8665237636107087</v>
+        <v>0.42160414</v>
       </c>
       <c r="L15">
-        <v>1.030009634818634</v>
+        <v>1.8268479</v>
       </c>
       <c r="M15">
-        <v>1.188542337147358</v>
+        <v>0.984573825</v>
       </c>
       <c r="N15">
-        <v>1.188542337147358</v>
+        <v>0.984573825</v>
       </c>
       <c r="O15">
-        <v>1.125797023248139</v>
+        <v>0.8141406366666667</v>
       </c>
       <c r="P15">
-        <v>1.081202812635141</v>
+        <v>0.7969172633333333</v>
       </c>
       <c r="Q15">
-        <v>1.081202812635141</v>
+        <v>0.7969172633333333</v>
       </c>
       <c r="R15">
-        <v>1.027533050379033</v>
+        <v>0.7030889825</v>
       </c>
       <c r="S15">
-        <v>1.027533050379033</v>
+        <v>0.7030889825</v>
       </c>
       <c r="T15">
-        <v>1.054716426016761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9678297416666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.00443731900812</v>
+        <v>0.023300756</v>
       </c>
       <c r="D16">
-        <v>1.000694614316868</v>
+        <v>3.442862100000001</v>
       </c>
       <c r="E16">
-        <v>0.9975227876629486</v>
+        <v>0.023300756</v>
       </c>
       <c r="F16">
-        <v>1.00443731900812</v>
+        <v>0.42160412</v>
       </c>
       <c r="G16">
-        <v>1.000298408682302</v>
+        <v>1.134</v>
       </c>
       <c r="H16">
-        <v>1.000007676564611</v>
+        <v>0.39134565</v>
       </c>
       <c r="I16">
-        <v>0.9991806395074418</v>
+        <v>0.21380688</v>
       </c>
       <c r="J16">
-        <v>1.000694614316868</v>
+        <v>3.442862100000001</v>
       </c>
       <c r="K16">
-        <v>1.00443731900812</v>
+        <v>3.442862100000001</v>
       </c>
       <c r="L16">
-        <v>0.9975227876629486</v>
+        <v>0.42160412</v>
       </c>
       <c r="M16">
-        <v>0.9991087009899084</v>
+        <v>0.222452438</v>
       </c>
       <c r="N16">
-        <v>0.9991087009899084</v>
+        <v>0.222452438</v>
       </c>
       <c r="O16">
-        <v>0.9994083595148094</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P16">
-        <v>1.000884906995979</v>
+        <v>1.295922325333333</v>
       </c>
       <c r="Q16">
-        <v>1.000884906995979</v>
+        <v>1.295922325333333</v>
       </c>
       <c r="R16">
-        <v>1.001773009999015</v>
+        <v>1.832657269</v>
       </c>
       <c r="S16">
-        <v>1.001773009999015</v>
+        <v>1.832657269</v>
       </c>
       <c r="T16">
-        <v>1.000356907623716</v>
+        <v>0.9378199176666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.991650292635321</v>
+        <v>0.8902123799999999</v>
       </c>
       <c r="D17">
-        <v>0.9988988146214572</v>
+        <v>0.33339105</v>
       </c>
       <c r="E17">
-        <v>1.004175844057032</v>
+        <v>0.8902123799999999</v>
       </c>
       <c r="F17">
-        <v>0.991650292635321</v>
+        <v>1.3147105</v>
       </c>
       <c r="G17">
-        <v>1.007292169968593</v>
+        <v>0.96292165</v>
       </c>
       <c r="H17">
-        <v>0.9986086765654104</v>
+        <v>1.3105555</v>
       </c>
       <c r="I17">
-        <v>1.001198982816786</v>
+        <v>0.37234335</v>
       </c>
       <c r="J17">
-        <v>0.9988988146214572</v>
+        <v>0.33339105</v>
       </c>
       <c r="K17">
-        <v>0.991650292635321</v>
+        <v>0.33339105</v>
       </c>
       <c r="L17">
-        <v>1.004175844057032</v>
+        <v>1.3147105</v>
       </c>
       <c r="M17">
-        <v>1.001537329339245</v>
+        <v>1.10246144</v>
       </c>
       <c r="N17">
-        <v>1.001537329339245</v>
+        <v>1.10246144</v>
       </c>
       <c r="O17">
-        <v>1.000561111747966</v>
+        <v>1.171826126666667</v>
       </c>
       <c r="P17">
-        <v>0.9982416504379369</v>
+        <v>0.8461046433333332</v>
       </c>
       <c r="Q17">
-        <v>0.9982416504379369</v>
+        <v>0.8461046433333332</v>
       </c>
       <c r="R17">
-        <v>0.9965938109872829</v>
+        <v>0.7179262449999999</v>
       </c>
       <c r="S17">
-        <v>0.9965938109872829</v>
+        <v>0.7179262449999999</v>
       </c>
       <c r="T17">
-        <v>1.000304130110767</v>
+        <v>0.864022405</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.028059364851227</v>
+        <v>0.08035632517808219</v>
       </c>
       <c r="D18">
-        <v>0.9871638293530712</v>
+        <v>1.810999342739726</v>
       </c>
       <c r="E18">
-        <v>0.9939684912719265</v>
+        <v>0.08035632517808219</v>
       </c>
       <c r="F18">
-        <v>1.028059364851227</v>
+        <v>1.088010829863014</v>
       </c>
       <c r="G18">
-        <v>0.9963050163687655</v>
+        <v>1.268581250684931</v>
       </c>
       <c r="H18">
-        <v>0.9924611504511616</v>
+        <v>0.4541245906849315</v>
       </c>
       <c r="I18">
-        <v>1.000831055375007</v>
+        <v>0.8750664709589038</v>
       </c>
       <c r="J18">
-        <v>0.9871638293530712</v>
+        <v>1.810999342739726</v>
       </c>
       <c r="K18">
-        <v>1.028059364851227</v>
+        <v>1.810999342739726</v>
       </c>
       <c r="L18">
-        <v>0.9939684912719265</v>
+        <v>1.088010829863014</v>
       </c>
       <c r="M18">
-        <v>0.9905661603124989</v>
+        <v>0.5841835775205479</v>
       </c>
       <c r="N18">
-        <v>0.9905661603124989</v>
+        <v>0.5841835775205479</v>
       </c>
       <c r="O18">
-        <v>0.9911978236920532</v>
+        <v>0.5408305819086757</v>
       </c>
       <c r="P18">
-        <v>1.003063895158742</v>
+        <v>0.9931221659269407</v>
       </c>
       <c r="Q18">
-        <v>1.003063895158742</v>
+        <v>0.9931221659269407</v>
       </c>
       <c r="R18">
-        <v>1.009312762581863</v>
+        <v>1.197591460130137</v>
       </c>
       <c r="S18">
-        <v>1.009312762581863</v>
+        <v>1.197591460130137</v>
       </c>
       <c r="T18">
-        <v>0.9997981512785264</v>
+        <v>0.9295231350182647</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.099671761677133</v>
+        <v>0.3933087695894736</v>
       </c>
       <c r="D19">
-        <v>0.9696006991939939</v>
+        <v>1.177390777894737</v>
       </c>
       <c r="E19">
-        <v>0.9684738962585434</v>
+        <v>0.3933087695894736</v>
       </c>
       <c r="F19">
-        <v>1.099671761677133</v>
+        <v>1.057788661578947</v>
       </c>
       <c r="G19">
-        <v>0.9682954899088356</v>
+        <v>1.080367150526316</v>
       </c>
       <c r="H19">
-        <v>0.9812010197801466</v>
+        <v>0.8303461894210529</v>
       </c>
       <c r="I19">
-        <v>1.001651426352629</v>
+        <v>1.162601513526316</v>
       </c>
       <c r="J19">
-        <v>0.9696006991939939</v>
+        <v>1.177390777894737</v>
       </c>
       <c r="K19">
-        <v>1.099671761677133</v>
+        <v>1.177390777894737</v>
       </c>
       <c r="L19">
-        <v>0.9684738962585434</v>
+        <v>1.057788661578947</v>
       </c>
       <c r="M19">
-        <v>0.9690372977262687</v>
+        <v>0.7255487155842104</v>
       </c>
       <c r="N19">
-        <v>0.9690372977262687</v>
+        <v>0.7255487155842104</v>
       </c>
       <c r="O19">
-        <v>0.9730918717442281</v>
+        <v>0.7604812068631578</v>
       </c>
       <c r="P19">
-        <v>1.012582119043224</v>
+        <v>0.8761627363543859</v>
       </c>
       <c r="Q19">
-        <v>1.012582119043224</v>
+        <v>0.8761627363543859</v>
       </c>
       <c r="R19">
-        <v>1.034354529701701</v>
+        <v>0.9514697467394737</v>
       </c>
       <c r="S19">
-        <v>1.034354529701701</v>
+        <v>0.9514697467394737</v>
       </c>
       <c r="T19">
-        <v>0.9981490488618804</v>
+        <v>0.9503005104228071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.164093479957895</v>
+      </c>
+      <c r="D20">
+        <v>0.7414934536842105</v>
+      </c>
+      <c r="E20">
+        <v>1.164093479957895</v>
+      </c>
+      <c r="F20">
+        <v>1.17140221368421</v>
+      </c>
+      <c r="G20">
+        <v>1.014608361052632</v>
+      </c>
+      <c r="H20">
+        <v>0.7807696282105262</v>
+      </c>
+      <c r="I20">
+        <v>1.912086012105264</v>
+      </c>
+      <c r="J20">
+        <v>0.7414934536842105</v>
+      </c>
+      <c r="K20">
+        <v>0.7414934536842105</v>
+      </c>
+      <c r="L20">
+        <v>1.17140221368421</v>
+      </c>
+      <c r="M20">
+        <v>1.167747846821052</v>
+      </c>
+      <c r="N20">
+        <v>1.167747846821052</v>
+      </c>
+      <c r="O20">
+        <v>1.03875510728421</v>
+      </c>
+      <c r="P20">
+        <v>1.025663049108772</v>
+      </c>
+      <c r="Q20">
+        <v>1.025663049108772</v>
+      </c>
+      <c r="R20">
+        <v>0.9546206502526315</v>
+      </c>
+      <c r="S20">
+        <v>0.9546206502526315</v>
+      </c>
+      <c r="T20">
+        <v>1.130742191449123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9064318062972869</v>
+      </c>
+      <c r="D21">
+        <v>1.299238763673717</v>
+      </c>
+      <c r="E21">
+        <v>0.9064318062972869</v>
+      </c>
+      <c r="F21">
+        <v>0.8220856183483974</v>
+      </c>
+      <c r="G21">
+        <v>0.9559355432670433</v>
+      </c>
+      <c r="H21">
+        <v>1.162669017626981</v>
+      </c>
+      <c r="I21">
+        <v>0.3653633047128017</v>
+      </c>
+      <c r="J21">
+        <v>1.299238763673717</v>
+      </c>
+      <c r="K21">
+        <v>1.299238763673717</v>
+      </c>
+      <c r="L21">
+        <v>0.8220856183483974</v>
+      </c>
+      <c r="M21">
+        <v>0.8642587123228422</v>
+      </c>
+      <c r="N21">
+        <v>0.8642587123228422</v>
+      </c>
+      <c r="O21">
+        <v>0.9637288140908883</v>
+      </c>
+      <c r="P21">
+        <v>1.009252062773134</v>
+      </c>
+      <c r="Q21">
+        <v>1.009252062773134</v>
+      </c>
+      <c r="R21">
+        <v>1.08174873799828</v>
+      </c>
+      <c r="S21">
+        <v>1.08174873799828</v>
+      </c>
+      <c r="T21">
+        <v>0.9186206756543712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.347075039476081</v>
+      </c>
+      <c r="D22">
+        <v>0.8665237636107087</v>
+      </c>
+      <c r="E22">
+        <v>1.347075039476081</v>
+      </c>
+      <c r="F22">
+        <v>1.030009634818634</v>
+      </c>
+      <c r="G22">
+        <v>0.9835968463244489</v>
+      </c>
+      <c r="H22">
+        <v>1.000306395449703</v>
+      </c>
+      <c r="I22">
+        <v>1.100786876420988</v>
+      </c>
+      <c r="J22">
+        <v>0.8665237636107087</v>
+      </c>
+      <c r="K22">
+        <v>0.8665237636107087</v>
+      </c>
+      <c r="L22">
+        <v>1.030009634818634</v>
+      </c>
+      <c r="M22">
+        <v>1.188542337147358</v>
+      </c>
+      <c r="N22">
+        <v>1.188542337147358</v>
+      </c>
+      <c r="O22">
+        <v>1.125797023248139</v>
+      </c>
+      <c r="P22">
+        <v>1.081202812635141</v>
+      </c>
+      <c r="Q22">
+        <v>1.081202812635141</v>
+      </c>
+      <c r="R22">
+        <v>1.027533050379033</v>
+      </c>
+      <c r="S22">
+        <v>1.027533050379033</v>
+      </c>
+      <c r="T22">
+        <v>1.054716426016761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.016718304143196</v>
+      </c>
+      <c r="D23">
+        <v>1.306553329187661</v>
+      </c>
+      <c r="E23">
+        <v>1.016718304143196</v>
+      </c>
+      <c r="F23">
+        <v>0.8044022550594857</v>
+      </c>
+      <c r="G23">
+        <v>0.9545421566353679</v>
+      </c>
+      <c r="H23">
+        <v>1.151268193834164</v>
+      </c>
+      <c r="I23">
+        <v>0.3915914898314264</v>
+      </c>
+      <c r="J23">
+        <v>1.306553329187661</v>
+      </c>
+      <c r="K23">
+        <v>1.306553329187661</v>
+      </c>
+      <c r="L23">
+        <v>0.8044022550594857</v>
+      </c>
+      <c r="M23">
+        <v>0.9105602796013406</v>
+      </c>
+      <c r="N23">
+        <v>0.9105602796013406</v>
+      </c>
+      <c r="O23">
+        <v>0.9907962510122816</v>
+      </c>
+      <c r="P23">
+        <v>1.04255796279678</v>
+      </c>
+      <c r="Q23">
+        <v>1.042557962796781</v>
+      </c>
+      <c r="R23">
+        <v>1.108556804394501</v>
+      </c>
+      <c r="S23">
+        <v>1.108556804394501</v>
+      </c>
+      <c r="T23">
+        <v>0.9375126214485499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.220097920298576</v>
+      </c>
+      <c r="D24">
+        <v>0.8282507625880421</v>
+      </c>
+      <c r="E24">
+        <v>1.220097920298576</v>
+      </c>
+      <c r="F24">
+        <v>1.045599442459515</v>
+      </c>
+      <c r="G24">
+        <v>0.9803007820091709</v>
+      </c>
+      <c r="H24">
+        <v>1.026463273013141</v>
+      </c>
+      <c r="I24">
+        <v>1.10316431461687</v>
+      </c>
+      <c r="J24">
+        <v>0.8282507625880421</v>
+      </c>
+      <c r="K24">
+        <v>0.8282507625880421</v>
+      </c>
+      <c r="L24">
+        <v>1.045599442459515</v>
+      </c>
+      <c r="M24">
+        <v>1.132848681379046</v>
+      </c>
+      <c r="N24">
+        <v>1.132848681379046</v>
+      </c>
+      <c r="O24">
+        <v>1.097386878590411</v>
+      </c>
+      <c r="P24">
+        <v>1.031316041782045</v>
+      </c>
+      <c r="Q24">
+        <v>1.031316041782045</v>
+      </c>
+      <c r="R24">
+        <v>0.980549721983544</v>
+      </c>
+      <c r="S24">
+        <v>0.980549721983544</v>
+      </c>
+      <c r="T24">
+        <v>1.033979415830886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.12550417903039</v>
+      </c>
+      <c r="D25">
+        <v>1.313697011673588</v>
+      </c>
+      <c r="E25">
+        <v>1.12550417903039</v>
+      </c>
+      <c r="F25">
+        <v>0.7870488859797093</v>
+      </c>
+      <c r="G25">
+        <v>0.9535273691531205</v>
+      </c>
+      <c r="H25">
+        <v>1.140166528635945</v>
+      </c>
+      <c r="I25">
+        <v>0.4178312767181729</v>
+      </c>
+      <c r="J25">
+        <v>1.313697011673588</v>
+      </c>
+      <c r="K25">
+        <v>1.313697011673588</v>
+      </c>
+      <c r="L25">
+        <v>0.7870488859797093</v>
+      </c>
+      <c r="M25">
+        <v>0.9562765325050496</v>
+      </c>
+      <c r="N25">
+        <v>0.9562765325050496</v>
+      </c>
+      <c r="O25">
+        <v>1.017573197882015</v>
+      </c>
+      <c r="P25">
+        <v>1.075416692227896</v>
+      </c>
+      <c r="Q25">
+        <v>1.075416692227896</v>
+      </c>
+      <c r="R25">
+        <v>1.134986772089319</v>
+      </c>
+      <c r="S25">
+        <v>1.134986772089319</v>
+      </c>
+      <c r="T25">
+        <v>0.9562958751984877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.09415679753867</v>
+      </c>
+      <c r="D26">
+        <v>0.790001976781931</v>
+      </c>
+      <c r="E26">
+        <v>1.09415679753867</v>
+      </c>
+      <c r="F26">
+        <v>1.060893185540924</v>
+      </c>
+      <c r="G26">
+        <v>0.9767815977973181</v>
+      </c>
+      <c r="H26">
+        <v>1.052355118101504</v>
+      </c>
+      <c r="I26">
+        <v>1.105620773907067</v>
+      </c>
+      <c r="J26">
+        <v>0.790001976781931</v>
+      </c>
+      <c r="K26">
+        <v>0.790001976781931</v>
+      </c>
+      <c r="L26">
+        <v>1.060893185540924</v>
+      </c>
+      <c r="M26">
+        <v>1.077524991539797</v>
+      </c>
+      <c r="N26">
+        <v>1.077524991539797</v>
+      </c>
+      <c r="O26">
+        <v>1.069135033727033</v>
+      </c>
+      <c r="P26">
+        <v>0.9816839866205086</v>
+      </c>
+      <c r="Q26">
+        <v>0.9816839866205084</v>
+      </c>
+      <c r="R26">
+        <v>0.9337634841608641</v>
+      </c>
+      <c r="S26">
+        <v>0.9337634841608641</v>
+      </c>
+      <c r="T26">
+        <v>1.013301574944569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.6904650986027564</v>
+      </c>
+      <c r="D27">
+        <v>1.033029054631254</v>
+      </c>
+      <c r="E27">
+        <v>0.6904650986027564</v>
+      </c>
+      <c r="F27">
+        <v>1.00895991891007</v>
+      </c>
+      <c r="G27">
+        <v>1.004864856955295</v>
+      </c>
+      <c r="H27">
+        <v>0.9738710923712915</v>
+      </c>
+      <c r="I27">
+        <v>1.138376124846195</v>
+      </c>
+      <c r="J27">
+        <v>1.033029054631254</v>
+      </c>
+      <c r="K27">
+        <v>1.033029054631254</v>
+      </c>
+      <c r="L27">
+        <v>1.00895991891007</v>
+      </c>
+      <c r="M27">
+        <v>0.849712508756413</v>
+      </c>
+      <c r="N27">
+        <v>0.849712508756413</v>
+      </c>
+      <c r="O27">
+        <v>0.8910987032947059</v>
+      </c>
+      <c r="P27">
+        <v>0.9108180240480269</v>
+      </c>
+      <c r="Q27">
+        <v>0.9108180240480269</v>
+      </c>
+      <c r="R27">
+        <v>0.9413707816938337</v>
+      </c>
+      <c r="S27">
+        <v>0.9413707816938337</v>
+      </c>
+      <c r="T27">
+        <v>0.9749276910528105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.001333738848484</v>
+      </c>
+      <c r="D28">
+        <v>1.292351863655469</v>
+      </c>
+      <c r="E28">
+        <v>1.001333738848484</v>
+      </c>
+      <c r="F28">
+        <v>0.9027535688015299</v>
+      </c>
+      <c r="G28">
+        <v>0.9918147613005519</v>
+      </c>
+      <c r="H28">
+        <v>0.9644175406027947</v>
+      </c>
+      <c r="I28">
+        <v>0.8030757239519616</v>
+      </c>
+      <c r="J28">
+        <v>1.292351863655469</v>
+      </c>
+      <c r="K28">
+        <v>1.292351863655469</v>
+      </c>
+      <c r="L28">
+        <v>0.9027535688015299</v>
+      </c>
+      <c r="M28">
+        <v>0.9520436538250068</v>
+      </c>
+      <c r="N28">
+        <v>0.9520436538250068</v>
+      </c>
+      <c r="O28">
+        <v>0.956168282750936</v>
+      </c>
+      <c r="P28">
+        <v>1.065479723768494</v>
+      </c>
+      <c r="Q28">
+        <v>1.065479723768494</v>
+      </c>
+      <c r="R28">
+        <v>1.122197758740238</v>
+      </c>
+      <c r="S28">
+        <v>1.122197758740238</v>
+      </c>
+      <c r="T28">
+        <v>0.9926245328601319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8307884887056712</v>
+      </c>
+      <c r="D29">
+        <v>1.064575001281229</v>
+      </c>
+      <c r="E29">
+        <v>0.8307884887056712</v>
+      </c>
+      <c r="F29">
+        <v>0.9924055613998732</v>
+      </c>
+      <c r="G29">
+        <v>0.9523942762648211</v>
+      </c>
+      <c r="H29">
+        <v>1.195956761735578</v>
+      </c>
+      <c r="I29">
+        <v>0.2874292366890198</v>
+      </c>
+      <c r="J29">
+        <v>1.064575001281229</v>
+      </c>
+      <c r="K29">
+        <v>1.064575001281229</v>
+      </c>
+      <c r="L29">
+        <v>0.9924055613998732</v>
+      </c>
+      <c r="M29">
+        <v>0.9115970250527723</v>
+      </c>
+      <c r="N29">
+        <v>0.9115970250527723</v>
+      </c>
+      <c r="O29">
+        <v>1.006383603947041</v>
+      </c>
+      <c r="P29">
+        <v>0.9625896837955913</v>
+      </c>
+      <c r="Q29">
+        <v>0.9625896837955912</v>
+      </c>
+      <c r="R29">
+        <v>0.9880860131670007</v>
+      </c>
+      <c r="S29">
+        <v>0.9880860131670007</v>
+      </c>
+      <c r="T29">
+        <v>0.8872582210126988</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8467342077039928</v>
+        <v>0.8094219110980454</v>
       </c>
       <c r="D4">
-        <v>1.202805156622619</v>
+        <v>0.9382087744045872</v>
       </c>
       <c r="E4">
-        <v>0.8467342077039928</v>
+        <v>0.8094219110980454</v>
       </c>
       <c r="F4">
-        <v>0.9656179268097479</v>
+        <v>1.096124913496067</v>
       </c>
       <c r="G4">
-        <v>1.028876638945481</v>
+        <v>1.045821774604294</v>
       </c>
       <c r="H4">
-        <v>0.9266515381884093</v>
+        <v>0.8466941654706673</v>
       </c>
       <c r="I4">
-        <v>0.9471340049987192</v>
+        <v>1.44287730690868</v>
       </c>
       <c r="J4">
-        <v>1.202805156622619</v>
+        <v>0.9382087744045872</v>
       </c>
       <c r="K4">
-        <v>1.202805156622619</v>
+        <v>0.9382087744045872</v>
       </c>
       <c r="L4">
-        <v>0.9656179268097479</v>
+        <v>1.096124913496067</v>
       </c>
       <c r="M4">
-        <v>0.9061760672568704</v>
+        <v>0.9527734122970564</v>
       </c>
       <c r="N4">
-        <v>0.9061760672568704</v>
+        <v>0.9527734122970564</v>
       </c>
       <c r="O4">
-        <v>0.9130012242340501</v>
+        <v>0.9174136633549267</v>
       </c>
       <c r="P4">
-        <v>1.005052430378787</v>
+        <v>0.9479185329995666</v>
       </c>
       <c r="Q4">
-        <v>1.005052430378787</v>
+        <v>0.9479185329995666</v>
       </c>
       <c r="R4">
-        <v>1.054490611939745</v>
+        <v>0.9454910933508217</v>
       </c>
       <c r="S4">
-        <v>1.054490611939745</v>
+        <v>0.9454910933508217</v>
       </c>
       <c r="T4">
-        <v>0.9863032455448281</v>
+        <v>1.029858140997057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7756437506829967</v>
+        <v>1.283930090580594</v>
       </c>
       <c r="D5">
-        <v>0.9368374728098023</v>
+        <v>0.789831345357614</v>
       </c>
       <c r="E5">
-        <v>0.7756437506829967</v>
+        <v>1.283930090580594</v>
       </c>
       <c r="F5">
-        <v>1.110952635619598</v>
+        <v>1.119805599905353</v>
       </c>
       <c r="G5">
-        <v>1.053443187853023</v>
+        <v>0.9960066618511904</v>
       </c>
       <c r="H5">
-        <v>0.8156876629214705</v>
+        <v>0.8487985641260259</v>
       </c>
       <c r="I5">
-        <v>1.527258129244962</v>
+        <v>1.669255030527202</v>
       </c>
       <c r="J5">
-        <v>0.9368374728098023</v>
+        <v>0.789831345357614</v>
       </c>
       <c r="K5">
-        <v>0.9368374728098023</v>
+        <v>0.789831345357614</v>
       </c>
       <c r="L5">
-        <v>1.110952635619598</v>
+        <v>1.119805599905353</v>
       </c>
       <c r="M5">
-        <v>0.9432981931512976</v>
+        <v>1.201867845242973</v>
       </c>
       <c r="N5">
-        <v>0.9432981931512976</v>
+        <v>1.201867845242973</v>
       </c>
       <c r="O5">
-        <v>0.9007613497413552</v>
+        <v>1.084178084870657</v>
       </c>
       <c r="P5">
-        <v>0.9411446197041325</v>
+        <v>1.064522345281187</v>
       </c>
       <c r="Q5">
-        <v>0.9411446197041325</v>
+        <v>1.064522345281187</v>
       </c>
       <c r="R5">
-        <v>0.9400678329805501</v>
+        <v>0.9958495953002937</v>
       </c>
       <c r="S5">
-        <v>0.9400678329805501</v>
+        <v>0.9958495953002937</v>
       </c>
       <c r="T5">
-        <v>1.036637139855309</v>
+        <v>1.117937882057997</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4065594975825045</v>
+        <v>0.8467342077039928</v>
       </c>
       <c r="D6">
-        <v>0.5746262172810758</v>
+        <v>1.202805156622619</v>
       </c>
       <c r="E6">
-        <v>0.4065594975825045</v>
+        <v>0.8467342077039928</v>
       </c>
       <c r="F6">
-        <v>1.349772975467691</v>
+        <v>0.9656179268097479</v>
       </c>
       <c r="G6">
-        <v>1.086124547208454</v>
+        <v>1.028876638945481</v>
       </c>
       <c r="H6">
-        <v>0.4392907728801271</v>
+        <v>0.9266515381884093</v>
       </c>
       <c r="I6">
-        <v>3.301077028771876</v>
+        <v>0.9471340049987192</v>
       </c>
       <c r="J6">
-        <v>0.5746262172810758</v>
+        <v>1.202805156622619</v>
       </c>
       <c r="K6">
-        <v>0.5746262172810758</v>
+        <v>1.202805156622619</v>
       </c>
       <c r="L6">
-        <v>1.349772975467691</v>
+        <v>0.9656179268097479</v>
       </c>
       <c r="M6">
-        <v>0.878166236525098</v>
+        <v>0.9061760672568704</v>
       </c>
       <c r="N6">
-        <v>0.878166236525098</v>
+        <v>0.9061760672568704</v>
       </c>
       <c r="O6">
-        <v>0.7318744153101077</v>
+        <v>0.9130012242340501</v>
       </c>
       <c r="P6">
-        <v>0.7769862301104239</v>
+        <v>1.005052430378787</v>
       </c>
       <c r="Q6">
-        <v>0.776986230110424</v>
+        <v>1.005052430378787</v>
       </c>
       <c r="R6">
-        <v>0.7263962269030869</v>
+        <v>1.054490611939745</v>
       </c>
       <c r="S6">
-        <v>0.7263962269030869</v>
+        <v>1.054490611939745</v>
       </c>
       <c r="T6">
-        <v>1.192908506531955</v>
+        <v>0.9863032455448281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9577712069399752</v>
+        <v>0.7756437506829967</v>
       </c>
       <c r="D7">
-        <v>1.034479178845978</v>
+        <v>0.9368374728098023</v>
       </c>
       <c r="E7">
-        <v>0.9577712069399752</v>
+        <v>0.7756437506829967</v>
       </c>
       <c r="F7">
-        <v>1.005036872929155</v>
+        <v>1.110952635619598</v>
       </c>
       <c r="G7">
-        <v>1.012272688972441</v>
+        <v>1.053443187853023</v>
       </c>
       <c r="H7">
-        <v>0.9746342397859852</v>
+        <v>0.8156876629214705</v>
       </c>
       <c r="I7">
-        <v>0.9985629398229374</v>
+        <v>1.527258129244962</v>
       </c>
       <c r="J7">
-        <v>1.034479178845978</v>
+        <v>0.9368374728098023</v>
       </c>
       <c r="K7">
-        <v>1.034479178845978</v>
+        <v>0.9368374728098023</v>
       </c>
       <c r="L7">
-        <v>1.005036872929155</v>
+        <v>1.110952635619598</v>
       </c>
       <c r="M7">
-        <v>0.9814040399345654</v>
+        <v>0.9432981931512976</v>
       </c>
       <c r="N7">
-        <v>0.9814040399345654</v>
+        <v>0.9432981931512976</v>
       </c>
       <c r="O7">
-        <v>0.9791474398850387</v>
+        <v>0.9007613497413552</v>
       </c>
       <c r="P7">
-        <v>0.9990957529050362</v>
+        <v>0.9411446197041325</v>
       </c>
       <c r="Q7">
-        <v>0.999095752905036</v>
+        <v>0.9411446197041325</v>
       </c>
       <c r="R7">
-        <v>1.007941609390271</v>
+        <v>0.9400678329805501</v>
       </c>
       <c r="S7">
-        <v>1.007941609390271</v>
+        <v>0.9400678329805501</v>
       </c>
       <c r="T7">
-        <v>0.9971261878827452</v>
+        <v>1.036637139855309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9988988146214574</v>
+        <v>0.4065594975825045</v>
       </c>
       <c r="D8">
-        <v>0.9916502926353213</v>
+        <v>0.5746262172810758</v>
       </c>
       <c r="E8">
-        <v>0.9988988146214574</v>
+        <v>0.4065594975825045</v>
       </c>
       <c r="F8">
-        <v>1.004175844057033</v>
+        <v>1.349772975467691</v>
       </c>
       <c r="G8">
-        <v>1.001198982816786</v>
+        <v>1.086124547208454</v>
       </c>
       <c r="H8">
-        <v>0.9986086765654106</v>
+        <v>0.4392907728801271</v>
       </c>
       <c r="I8">
-        <v>1.007292169968593</v>
+        <v>3.301077028771876</v>
       </c>
       <c r="J8">
-        <v>0.9916502926353213</v>
+        <v>0.5746262172810758</v>
       </c>
       <c r="K8">
-        <v>0.9916502926353213</v>
+        <v>0.5746262172810758</v>
       </c>
       <c r="L8">
-        <v>1.004175844057033</v>
+        <v>1.349772975467691</v>
       </c>
       <c r="M8">
-        <v>1.001537329339245</v>
+        <v>0.878166236525098</v>
       </c>
       <c r="N8">
-        <v>1.001537329339245</v>
+        <v>0.878166236525098</v>
       </c>
       <c r="O8">
-        <v>1.000561111747967</v>
+        <v>0.7318744153101077</v>
       </c>
       <c r="P8">
-        <v>0.9982416504379371</v>
+        <v>0.7769862301104239</v>
       </c>
       <c r="Q8">
-        <v>0.9982416504379371</v>
+        <v>0.776986230110424</v>
       </c>
       <c r="R8">
-        <v>0.9965938109872832</v>
+        <v>0.7263962269030869</v>
       </c>
       <c r="S8">
-        <v>0.9965938109872832</v>
+        <v>0.7263962269030869</v>
       </c>
       <c r="T8">
-        <v>1.000304130110767</v>
+        <v>1.192908506531955</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9261994985095362</v>
+        <v>0.9577712069399752</v>
       </c>
       <c r="D9">
-        <v>1.064628966246604</v>
+        <v>1.034479178845978</v>
       </c>
       <c r="E9">
-        <v>0.9261994985095362</v>
+        <v>0.9577712069399752</v>
       </c>
       <c r="F9">
-        <v>1.007997753761681</v>
+        <v>1.005036872929155</v>
       </c>
       <c r="G9">
-        <v>1.021613889446317</v>
+        <v>1.012272688972441</v>
       </c>
       <c r="H9">
-        <v>0.9544634774574785</v>
+        <v>0.9746342397859852</v>
       </c>
       <c r="I9">
-        <v>0.9958493136187239</v>
+        <v>0.9985629398229374</v>
       </c>
       <c r="J9">
-        <v>1.064628966246604</v>
+        <v>1.034479178845978</v>
       </c>
       <c r="K9">
-        <v>1.064628966246604</v>
+        <v>1.034479178845978</v>
       </c>
       <c r="L9">
-        <v>1.007997753761681</v>
+        <v>1.005036872929155</v>
       </c>
       <c r="M9">
-        <v>0.9670986261356087</v>
+        <v>0.9814040399345654</v>
       </c>
       <c r="N9">
-        <v>0.9670986261356087</v>
+        <v>0.9814040399345654</v>
       </c>
       <c r="O9">
-        <v>0.9628869099095653</v>
+        <v>0.9791474398850387</v>
       </c>
       <c r="P9">
-        <v>0.9996087395059403</v>
+        <v>0.9990957529050362</v>
       </c>
       <c r="Q9">
-        <v>0.9996087395059403</v>
+        <v>0.999095752905036</v>
       </c>
       <c r="R9">
-        <v>1.015863796191106</v>
+        <v>1.007941609390271</v>
       </c>
       <c r="S9">
-        <v>1.015863796191106</v>
+        <v>1.007941609390271</v>
       </c>
       <c r="T9">
-        <v>0.99512548317339</v>
+        <v>0.9971261878827452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4191763937963398</v>
+        <v>0.9988988146214574</v>
       </c>
       <c r="D10">
-        <v>0.5598349364530752</v>
+        <v>0.9916502926353213</v>
       </c>
       <c r="E10">
-        <v>0.4191763937963398</v>
+        <v>0.9988988146214574</v>
       </c>
       <c r="F10">
-        <v>1.355015867173876</v>
+        <v>1.004175844057033</v>
       </c>
       <c r="G10">
-        <v>1.084979313357704</v>
+        <v>1.001198982816786</v>
       </c>
       <c r="H10">
-        <v>0.4298908388729901</v>
+        <v>0.9986086765654106</v>
       </c>
       <c r="I10">
-        <v>3.355699856612579</v>
+        <v>1.007292169968593</v>
       </c>
       <c r="J10">
-        <v>0.5598349364530752</v>
+        <v>0.9916502926353213</v>
       </c>
       <c r="K10">
-        <v>0.5598349364530752</v>
+        <v>0.9916502926353213</v>
       </c>
       <c r="L10">
-        <v>1.355015867173876</v>
+        <v>1.004175844057033</v>
       </c>
       <c r="M10">
-        <v>0.887096130485108</v>
+        <v>1.001537329339245</v>
       </c>
       <c r="N10">
-        <v>0.887096130485108</v>
+        <v>1.001537329339245</v>
       </c>
       <c r="O10">
-        <v>0.7346943666144021</v>
+        <v>1.000561111747967</v>
       </c>
       <c r="P10">
-        <v>0.7780090658077637</v>
+        <v>0.9982416504379371</v>
       </c>
       <c r="Q10">
-        <v>0.7780090658077637</v>
+        <v>0.9982416504379371</v>
       </c>
       <c r="R10">
-        <v>0.7234655334690916</v>
+        <v>0.9965938109872832</v>
       </c>
       <c r="S10">
-        <v>0.7234655334690916</v>
+        <v>0.9965938109872832</v>
       </c>
       <c r="T10">
-        <v>1.200766201044427</v>
+        <v>1.000304130110767</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9147224887093207</v>
+        <v>0.9261994985095362</v>
       </c>
       <c r="D11">
-        <v>1.178012991853908</v>
+        <v>1.064628966246604</v>
       </c>
       <c r="E11">
-        <v>0.9147224887093207</v>
+        <v>0.9261994985095362</v>
       </c>
       <c r="F11">
-        <v>0.959081909499672</v>
+        <v>1.007997753761681</v>
       </c>
       <c r="G11">
-        <v>1.018689172075081</v>
+        <v>1.021613889446317</v>
       </c>
       <c r="H11">
-        <v>0.9313238927289005</v>
+        <v>0.9544634774574785</v>
       </c>
       <c r="I11">
-        <v>1.003603851097015</v>
+        <v>0.9958493136187239</v>
       </c>
       <c r="J11">
-        <v>1.178012991853908</v>
+        <v>1.064628966246604</v>
       </c>
       <c r="K11">
-        <v>1.178012991853908</v>
+        <v>1.064628966246604</v>
       </c>
       <c r="L11">
-        <v>0.959081909499672</v>
+        <v>1.007997753761681</v>
       </c>
       <c r="M11">
-        <v>0.9369021991044963</v>
+        <v>0.9670986261356087</v>
       </c>
       <c r="N11">
-        <v>0.9369021991044963</v>
+        <v>0.9670986261356087</v>
       </c>
       <c r="O11">
-        <v>0.9350427636459644</v>
+        <v>0.9628869099095653</v>
       </c>
       <c r="P11">
-        <v>1.0172724633543</v>
+        <v>0.9996087395059403</v>
       </c>
       <c r="Q11">
-        <v>1.0172724633543</v>
+        <v>0.9996087395059403</v>
       </c>
       <c r="R11">
-        <v>1.057457595479202</v>
+        <v>1.015863796191106</v>
       </c>
       <c r="S11">
-        <v>1.057457595479202</v>
+        <v>1.015863796191106</v>
       </c>
       <c r="T11">
-        <v>1.00090571766065</v>
+        <v>0.99512548317339</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8537564329221045</v>
+        <v>0.4191763937963398</v>
       </c>
       <c r="D12">
-        <v>0.8568649104842124</v>
+        <v>0.5598349364530752</v>
       </c>
       <c r="E12">
-        <v>0.8537564329221045</v>
+        <v>0.4191763937963398</v>
       </c>
       <c r="F12">
-        <v>1.125967916536845</v>
+        <v>1.355015867173876</v>
       </c>
       <c r="G12">
-        <v>1.038871113305262</v>
+        <v>1.084979313357704</v>
       </c>
       <c r="H12">
-        <v>0.8155731576789459</v>
+        <v>0.4298908388729901</v>
       </c>
       <c r="I12">
-        <v>1.672114442244215</v>
+        <v>3.355699856612579</v>
       </c>
       <c r="J12">
-        <v>0.8568649104842124</v>
+        <v>0.5598349364530752</v>
       </c>
       <c r="K12">
-        <v>0.8568649104842124</v>
+        <v>0.5598349364530752</v>
       </c>
       <c r="L12">
-        <v>1.125967916536845</v>
+        <v>1.355015867173876</v>
       </c>
       <c r="M12">
-        <v>0.9898621747294745</v>
+        <v>0.887096130485108</v>
       </c>
       <c r="N12">
-        <v>0.9898621747294745</v>
+        <v>0.887096130485108</v>
       </c>
       <c r="O12">
-        <v>0.9317658357126316</v>
+        <v>0.7346943666144021</v>
       </c>
       <c r="P12">
-        <v>0.945529753314387</v>
+        <v>0.7780090658077637</v>
       </c>
       <c r="Q12">
-        <v>0.945529753314387</v>
+        <v>0.7780090658077637</v>
       </c>
       <c r="R12">
-        <v>0.9233635426068434</v>
+        <v>0.7234655334690916</v>
       </c>
       <c r="S12">
-        <v>0.9233635426068434</v>
+        <v>0.7234655334690916</v>
       </c>
       <c r="T12">
-        <v>1.060524662195264</v>
+        <v>1.200766201044427</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.243667219781851</v>
+        <v>0.9147224887093207</v>
       </c>
       <c r="D13">
-        <v>0.9847931933362133</v>
+        <v>1.178012991853908</v>
       </c>
       <c r="E13">
-        <v>1.243667219781851</v>
+        <v>0.9147224887093207</v>
       </c>
       <c r="F13">
-        <v>0.9287727110014137</v>
+        <v>0.959081909499672</v>
       </c>
       <c r="G13">
-        <v>0.9459025519757938</v>
+        <v>1.018689172075081</v>
       </c>
       <c r="H13">
-        <v>1.123936868557369</v>
+        <v>0.9313238927289005</v>
       </c>
       <c r="I13">
-        <v>0.7800123086255049</v>
+        <v>1.003603851097015</v>
       </c>
       <c r="J13">
-        <v>0.9847931933362133</v>
+        <v>1.178012991853908</v>
       </c>
       <c r="K13">
-        <v>0.9847931933362133</v>
+        <v>1.178012991853908</v>
       </c>
       <c r="L13">
-        <v>0.9287727110014137</v>
+        <v>0.959081909499672</v>
       </c>
       <c r="M13">
-        <v>1.086219965391632</v>
+        <v>0.9369021991044963</v>
       </c>
       <c r="N13">
-        <v>1.086219965391632</v>
+        <v>0.9369021991044963</v>
       </c>
       <c r="O13">
-        <v>1.098792266446878</v>
+        <v>0.9350427636459644</v>
       </c>
       <c r="P13">
-        <v>1.052411041373159</v>
+        <v>1.0172724633543</v>
       </c>
       <c r="Q13">
-        <v>1.052411041373159</v>
+        <v>1.0172724633543</v>
       </c>
       <c r="R13">
-        <v>1.035506579363923</v>
+        <v>1.057457595479202</v>
       </c>
       <c r="S13">
-        <v>1.035506579363923</v>
+        <v>1.057457595479202</v>
       </c>
       <c r="T13">
-        <v>1.001180808879691</v>
+        <v>1.00090571766065</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.001799323199999997</v>
+        <v>0.8537564329221045</v>
       </c>
       <c r="D14">
-        <v>0.2138068799999999</v>
+        <v>0.8568649104842124</v>
       </c>
       <c r="E14">
-        <v>0.001799323199999997</v>
+        <v>0.8537564329221045</v>
       </c>
       <c r="F14">
-        <v>1.602552399999997</v>
+        <v>1.125967916536845</v>
       </c>
       <c r="G14">
-        <v>1.1262586</v>
+        <v>1.038871113305262</v>
       </c>
       <c r="H14">
-        <v>0.02988525700000006</v>
+        <v>0.8155731576789459</v>
       </c>
       <c r="I14">
-        <v>5.166004400000004</v>
+        <v>1.672114442244215</v>
       </c>
       <c r="J14">
-        <v>0.2138068799999999</v>
+        <v>0.8568649104842124</v>
       </c>
       <c r="K14">
-        <v>0.2138068799999999</v>
+        <v>0.8568649104842124</v>
       </c>
       <c r="L14">
-        <v>1.602552399999997</v>
+        <v>1.125967916536845</v>
       </c>
       <c r="M14">
-        <v>0.8021758615999985</v>
+        <v>0.9898621747294745</v>
       </c>
       <c r="N14">
-        <v>0.8021758615999985</v>
+        <v>0.9898621747294745</v>
       </c>
       <c r="O14">
-        <v>0.5447456600666657</v>
+        <v>0.9317658357126316</v>
       </c>
       <c r="P14">
-        <v>0.6060528677333323</v>
+        <v>0.945529753314387</v>
       </c>
       <c r="Q14">
-        <v>0.6060528677333323</v>
+        <v>0.945529753314387</v>
       </c>
       <c r="R14">
-        <v>0.5079913707999992</v>
+        <v>0.9233635426068434</v>
       </c>
       <c r="S14">
-        <v>0.5079913707999992</v>
+        <v>0.9233635426068434</v>
       </c>
       <c r="T14">
-        <v>1.356717810033333</v>
+        <v>1.060524662195264</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.14229975</v>
+        <v>1.243667219781851</v>
       </c>
       <c r="D15">
-        <v>0.42160414</v>
+        <v>0.9847931933362133</v>
       </c>
       <c r="E15">
-        <v>0.14229975</v>
+        <v>1.243667219781851</v>
       </c>
       <c r="F15">
-        <v>1.8268479</v>
+        <v>0.9287727110014137</v>
       </c>
       <c r="G15">
-        <v>1.3403623</v>
+        <v>0.9459025519757938</v>
       </c>
       <c r="H15">
-        <v>0.47327426</v>
+        <v>1.123936868557369</v>
       </c>
       <c r="I15">
-        <v>1.6025901</v>
+        <v>0.7800123086255049</v>
       </c>
       <c r="J15">
-        <v>0.42160414</v>
+        <v>0.9847931933362133</v>
       </c>
       <c r="K15">
-        <v>0.42160414</v>
+        <v>0.9847931933362133</v>
       </c>
       <c r="L15">
-        <v>1.8268479</v>
+        <v>0.9287727110014137</v>
       </c>
       <c r="M15">
-        <v>0.984573825</v>
+        <v>1.086219965391632</v>
       </c>
       <c r="N15">
-        <v>0.984573825</v>
+        <v>1.086219965391632</v>
       </c>
       <c r="O15">
-        <v>0.8141406366666667</v>
+        <v>1.098792266446878</v>
       </c>
       <c r="P15">
-        <v>0.7969172633333333</v>
+        <v>1.052411041373159</v>
       </c>
       <c r="Q15">
-        <v>0.7969172633333333</v>
+        <v>1.052411041373159</v>
       </c>
       <c r="R15">
-        <v>0.7030889825</v>
+        <v>1.035506579363923</v>
       </c>
       <c r="S15">
-        <v>0.7030889825</v>
+        <v>1.035506579363923</v>
       </c>
       <c r="T15">
-        <v>0.9678297416666667</v>
+        <v>1.001180808879691</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.023300756</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="D16">
-        <v>3.442862100000001</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="E16">
-        <v>0.023300756</v>
+        <v>0.001799323199999997</v>
       </c>
       <c r="F16">
-        <v>0.42160412</v>
+        <v>1.602552399999997</v>
       </c>
       <c r="G16">
-        <v>1.134</v>
+        <v>1.1262586</v>
       </c>
       <c r="H16">
-        <v>0.39134565</v>
+        <v>0.02988525700000006</v>
       </c>
       <c r="I16">
-        <v>0.21380688</v>
+        <v>5.166004400000004</v>
       </c>
       <c r="J16">
-        <v>3.442862100000001</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="K16">
-        <v>3.442862100000001</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="L16">
-        <v>0.42160412</v>
+        <v>1.602552399999997</v>
       </c>
       <c r="M16">
-        <v>0.222452438</v>
+        <v>0.8021758615999985</v>
       </c>
       <c r="N16">
-        <v>0.222452438</v>
+        <v>0.8021758615999985</v>
       </c>
       <c r="O16">
-        <v>0.2787501753333333</v>
+        <v>0.5447456600666657</v>
       </c>
       <c r="P16">
-        <v>1.295922325333333</v>
+        <v>0.6060528677333323</v>
       </c>
       <c r="Q16">
-        <v>1.295922325333333</v>
+        <v>0.6060528677333323</v>
       </c>
       <c r="R16">
-        <v>1.832657269</v>
+        <v>0.5079913707999992</v>
       </c>
       <c r="S16">
-        <v>1.832657269</v>
+        <v>0.5079913707999992</v>
       </c>
       <c r="T16">
-        <v>0.9378199176666667</v>
+        <v>1.356717810033333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8902123799999999</v>
+        <v>0.14229975</v>
       </c>
       <c r="D17">
-        <v>0.33339105</v>
+        <v>0.42160414</v>
       </c>
       <c r="E17">
-        <v>0.8902123799999999</v>
+        <v>0.14229975</v>
       </c>
       <c r="F17">
-        <v>1.3147105</v>
+        <v>1.8268479</v>
       </c>
       <c r="G17">
-        <v>0.96292165</v>
+        <v>1.3403623</v>
       </c>
       <c r="H17">
-        <v>1.3105555</v>
+        <v>0.47327426</v>
       </c>
       <c r="I17">
-        <v>0.37234335</v>
+        <v>1.6025901</v>
       </c>
       <c r="J17">
-        <v>0.33339105</v>
+        <v>0.42160414</v>
       </c>
       <c r="K17">
-        <v>0.33339105</v>
+        <v>0.42160414</v>
       </c>
       <c r="L17">
-        <v>1.3147105</v>
+        <v>1.8268479</v>
       </c>
       <c r="M17">
-        <v>1.10246144</v>
+        <v>0.984573825</v>
       </c>
       <c r="N17">
-        <v>1.10246144</v>
+        <v>0.984573825</v>
       </c>
       <c r="O17">
-        <v>1.171826126666667</v>
+        <v>0.8141406366666667</v>
       </c>
       <c r="P17">
-        <v>0.8461046433333332</v>
+        <v>0.7969172633333333</v>
       </c>
       <c r="Q17">
-        <v>0.8461046433333332</v>
+        <v>0.7969172633333333</v>
       </c>
       <c r="R17">
-        <v>0.7179262449999999</v>
+        <v>0.7030889825</v>
       </c>
       <c r="S17">
-        <v>0.7179262449999999</v>
+        <v>0.7030889825</v>
       </c>
       <c r="T17">
-        <v>0.864022405</v>
+        <v>0.9678297416666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.08035632517808219</v>
+        <v>0.023300756</v>
       </c>
       <c r="D18">
-        <v>1.810999342739726</v>
+        <v>3.442862100000001</v>
       </c>
       <c r="E18">
-        <v>0.08035632517808219</v>
+        <v>0.023300756</v>
       </c>
       <c r="F18">
-        <v>1.088010829863014</v>
+        <v>0.42160412</v>
       </c>
       <c r="G18">
-        <v>1.268581250684931</v>
+        <v>1.134</v>
       </c>
       <c r="H18">
-        <v>0.4541245906849315</v>
+        <v>0.39134565</v>
       </c>
       <c r="I18">
-        <v>0.8750664709589038</v>
+        <v>0.21380688</v>
       </c>
       <c r="J18">
-        <v>1.810999342739726</v>
+        <v>3.442862100000001</v>
       </c>
       <c r="K18">
-        <v>1.810999342739726</v>
+        <v>3.442862100000001</v>
       </c>
       <c r="L18">
-        <v>1.088010829863014</v>
+        <v>0.42160412</v>
       </c>
       <c r="M18">
-        <v>0.5841835775205479</v>
+        <v>0.222452438</v>
       </c>
       <c r="N18">
-        <v>0.5841835775205479</v>
+        <v>0.222452438</v>
       </c>
       <c r="O18">
-        <v>0.5408305819086757</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P18">
-        <v>0.9931221659269407</v>
+        <v>1.295922325333333</v>
       </c>
       <c r="Q18">
-        <v>0.9931221659269407</v>
+        <v>1.295922325333333</v>
       </c>
       <c r="R18">
-        <v>1.197591460130137</v>
+        <v>1.832657269</v>
       </c>
       <c r="S18">
-        <v>1.197591460130137</v>
+        <v>1.832657269</v>
       </c>
       <c r="T18">
-        <v>0.9295231350182647</v>
+        <v>0.9378199176666667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.3933087695894736</v>
+        <v>0.8902123799999999</v>
       </c>
       <c r="D19">
-        <v>1.177390777894737</v>
+        <v>0.33339105</v>
       </c>
       <c r="E19">
-        <v>0.3933087695894736</v>
+        <v>0.8902123799999999</v>
       </c>
       <c r="F19">
-        <v>1.057788661578947</v>
+        <v>1.3147105</v>
       </c>
       <c r="G19">
-        <v>1.080367150526316</v>
+        <v>0.96292165</v>
       </c>
       <c r="H19">
-        <v>0.8303461894210529</v>
+        <v>1.3105555</v>
       </c>
       <c r="I19">
-        <v>1.162601513526316</v>
+        <v>0.37234335</v>
       </c>
       <c r="J19">
-        <v>1.177390777894737</v>
+        <v>0.33339105</v>
       </c>
       <c r="K19">
-        <v>1.177390777894737</v>
+        <v>0.33339105</v>
       </c>
       <c r="L19">
-        <v>1.057788661578947</v>
+        <v>1.3147105</v>
       </c>
       <c r="M19">
-        <v>0.7255487155842104</v>
+        <v>1.10246144</v>
       </c>
       <c r="N19">
-        <v>0.7255487155842104</v>
+        <v>1.10246144</v>
       </c>
       <c r="O19">
-        <v>0.7604812068631578</v>
+        <v>1.171826126666667</v>
       </c>
       <c r="P19">
-        <v>0.8761627363543859</v>
+        <v>0.8461046433333332</v>
       </c>
       <c r="Q19">
-        <v>0.8761627363543859</v>
+        <v>0.8461046433333332</v>
       </c>
       <c r="R19">
-        <v>0.9514697467394737</v>
+        <v>0.7179262449999999</v>
       </c>
       <c r="S19">
-        <v>0.9514697467394737</v>
+        <v>0.7179262449999999</v>
       </c>
       <c r="T19">
-        <v>0.9503005104228071</v>
+        <v>0.864022405</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.164093479957895</v>
+        <v>0.08035632517808219</v>
       </c>
       <c r="D20">
-        <v>0.7414934536842105</v>
+        <v>1.810999342739726</v>
       </c>
       <c r="E20">
-        <v>1.164093479957895</v>
+        <v>0.08035632517808219</v>
       </c>
       <c r="F20">
-        <v>1.17140221368421</v>
+        <v>1.088010829863014</v>
       </c>
       <c r="G20">
-        <v>1.014608361052632</v>
+        <v>1.268581250684931</v>
       </c>
       <c r="H20">
-        <v>0.7807696282105262</v>
+        <v>0.4541245906849315</v>
       </c>
       <c r="I20">
-        <v>1.912086012105264</v>
+        <v>0.8750664709589038</v>
       </c>
       <c r="J20">
-        <v>0.7414934536842105</v>
+        <v>1.810999342739726</v>
       </c>
       <c r="K20">
-        <v>0.7414934536842105</v>
+        <v>1.810999342739726</v>
       </c>
       <c r="L20">
-        <v>1.17140221368421</v>
+        <v>1.088010829863014</v>
       </c>
       <c r="M20">
-        <v>1.167747846821052</v>
+        <v>0.5841835775205479</v>
       </c>
       <c r="N20">
-        <v>1.167747846821052</v>
+        <v>0.5841835775205479</v>
       </c>
       <c r="O20">
-        <v>1.03875510728421</v>
+        <v>0.5408305819086757</v>
       </c>
       <c r="P20">
-        <v>1.025663049108772</v>
+        <v>0.9931221659269407</v>
       </c>
       <c r="Q20">
-        <v>1.025663049108772</v>
+        <v>0.9931221659269407</v>
       </c>
       <c r="R20">
-        <v>0.9546206502526315</v>
+        <v>1.197591460130137</v>
       </c>
       <c r="S20">
-        <v>0.9546206502526315</v>
+        <v>1.197591460130137</v>
       </c>
       <c r="T20">
-        <v>1.130742191449123</v>
+        <v>0.9295231350182647</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9064318062972869</v>
+        <v>0.3933087695894736</v>
       </c>
       <c r="D21">
-        <v>1.299238763673717</v>
+        <v>1.177390777894737</v>
       </c>
       <c r="E21">
-        <v>0.9064318062972869</v>
+        <v>0.3933087695894736</v>
       </c>
       <c r="F21">
-        <v>0.8220856183483974</v>
+        <v>1.057788661578947</v>
       </c>
       <c r="G21">
-        <v>0.9559355432670433</v>
+        <v>1.080367150526316</v>
       </c>
       <c r="H21">
-        <v>1.162669017626981</v>
+        <v>0.8303461894210529</v>
       </c>
       <c r="I21">
-        <v>0.3653633047128017</v>
+        <v>1.162601513526316</v>
       </c>
       <c r="J21">
-        <v>1.299238763673717</v>
+        <v>1.177390777894737</v>
       </c>
       <c r="K21">
-        <v>1.299238763673717</v>
+        <v>1.177390777894737</v>
       </c>
       <c r="L21">
-        <v>0.8220856183483974</v>
+        <v>1.057788661578947</v>
       </c>
       <c r="M21">
-        <v>0.8642587123228422</v>
+        <v>0.7255487155842104</v>
       </c>
       <c r="N21">
-        <v>0.8642587123228422</v>
+        <v>0.7255487155842104</v>
       </c>
       <c r="O21">
-        <v>0.9637288140908883</v>
+        <v>0.7604812068631578</v>
       </c>
       <c r="P21">
-        <v>1.009252062773134</v>
+        <v>0.8761627363543859</v>
       </c>
       <c r="Q21">
-        <v>1.009252062773134</v>
+        <v>0.8761627363543859</v>
       </c>
       <c r="R21">
-        <v>1.08174873799828</v>
+        <v>0.9514697467394737</v>
       </c>
       <c r="S21">
-        <v>1.08174873799828</v>
+        <v>0.9514697467394737</v>
       </c>
       <c r="T21">
-        <v>0.9186206756543712</v>
+        <v>0.9503005104228071</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.347075039476081</v>
+        <v>1.164093479957895</v>
       </c>
       <c r="D22">
-        <v>0.8665237636107087</v>
+        <v>0.7414934536842105</v>
       </c>
       <c r="E22">
-        <v>1.347075039476081</v>
+        <v>1.164093479957895</v>
       </c>
       <c r="F22">
-        <v>1.030009634818634</v>
+        <v>1.17140221368421</v>
       </c>
       <c r="G22">
-        <v>0.9835968463244489</v>
+        <v>1.014608361052632</v>
       </c>
       <c r="H22">
-        <v>1.000306395449703</v>
+        <v>0.7807696282105262</v>
       </c>
       <c r="I22">
-        <v>1.100786876420988</v>
+        <v>1.912086012105264</v>
       </c>
       <c r="J22">
-        <v>0.8665237636107087</v>
+        <v>0.7414934536842105</v>
       </c>
       <c r="K22">
-        <v>0.8665237636107087</v>
+        <v>0.7414934536842105</v>
       </c>
       <c r="L22">
-        <v>1.030009634818634</v>
+        <v>1.17140221368421</v>
       </c>
       <c r="M22">
-        <v>1.188542337147358</v>
+        <v>1.167747846821052</v>
       </c>
       <c r="N22">
-        <v>1.188542337147358</v>
+        <v>1.167747846821052</v>
       </c>
       <c r="O22">
-        <v>1.125797023248139</v>
+        <v>1.03875510728421</v>
       </c>
       <c r="P22">
-        <v>1.081202812635141</v>
+        <v>1.025663049108772</v>
       </c>
       <c r="Q22">
-        <v>1.081202812635141</v>
+        <v>1.025663049108772</v>
       </c>
       <c r="R22">
-        <v>1.027533050379033</v>
+        <v>0.9546206502526315</v>
       </c>
       <c r="S22">
-        <v>1.027533050379033</v>
+        <v>0.9546206502526315</v>
       </c>
       <c r="T22">
-        <v>1.054716426016761</v>
+        <v>1.130742191449123</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.016718304143196</v>
+        <v>0.9064318062972869</v>
       </c>
       <c r="D23">
-        <v>1.306553329187661</v>
+        <v>1.299238763673717</v>
       </c>
       <c r="E23">
-        <v>1.016718304143196</v>
+        <v>0.9064318062972869</v>
       </c>
       <c r="F23">
-        <v>0.8044022550594857</v>
+        <v>0.8220856183483974</v>
       </c>
       <c r="G23">
-        <v>0.9545421566353679</v>
+        <v>0.9559355432670433</v>
       </c>
       <c r="H23">
-        <v>1.151268193834164</v>
+        <v>1.162669017626981</v>
       </c>
       <c r="I23">
-        <v>0.3915914898314264</v>
+        <v>0.3653633047128017</v>
       </c>
       <c r="J23">
-        <v>1.306553329187661</v>
+        <v>1.299238763673717</v>
       </c>
       <c r="K23">
-        <v>1.306553329187661</v>
+        <v>1.299238763673717</v>
       </c>
       <c r="L23">
-        <v>0.8044022550594857</v>
+        <v>0.8220856183483974</v>
       </c>
       <c r="M23">
-        <v>0.9105602796013406</v>
+        <v>0.8642587123228422</v>
       </c>
       <c r="N23">
-        <v>0.9105602796013406</v>
+        <v>0.8642587123228422</v>
       </c>
       <c r="O23">
-        <v>0.9907962510122816</v>
+        <v>0.9637288140908883</v>
       </c>
       <c r="P23">
-        <v>1.04255796279678</v>
+        <v>1.009252062773134</v>
       </c>
       <c r="Q23">
-        <v>1.042557962796781</v>
+        <v>1.009252062773134</v>
       </c>
       <c r="R23">
-        <v>1.108556804394501</v>
+        <v>1.08174873799828</v>
       </c>
       <c r="S23">
-        <v>1.108556804394501</v>
+        <v>1.08174873799828</v>
       </c>
       <c r="T23">
-        <v>0.9375126214485499</v>
+        <v>0.9186206756543712</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.220097920298576</v>
+        <v>1.347075039476081</v>
       </c>
       <c r="D24">
-        <v>0.8282507625880421</v>
+        <v>0.8665237636107087</v>
       </c>
       <c r="E24">
-        <v>1.220097920298576</v>
+        <v>1.347075039476081</v>
       </c>
       <c r="F24">
-        <v>1.045599442459515</v>
+        <v>1.030009634818634</v>
       </c>
       <c r="G24">
-        <v>0.9803007820091709</v>
+        <v>0.9835968463244489</v>
       </c>
       <c r="H24">
-        <v>1.026463273013141</v>
+        <v>1.000306395449703</v>
       </c>
       <c r="I24">
-        <v>1.10316431461687</v>
+        <v>1.100786876420988</v>
       </c>
       <c r="J24">
-        <v>0.8282507625880421</v>
+        <v>0.8665237636107087</v>
       </c>
       <c r="K24">
-        <v>0.8282507625880421</v>
+        <v>0.8665237636107087</v>
       </c>
       <c r="L24">
-        <v>1.045599442459515</v>
+        <v>1.030009634818634</v>
       </c>
       <c r="M24">
-        <v>1.132848681379046</v>
+        <v>1.188542337147358</v>
       </c>
       <c r="N24">
-        <v>1.132848681379046</v>
+        <v>1.188542337147358</v>
       </c>
       <c r="O24">
-        <v>1.097386878590411</v>
+        <v>1.125797023248139</v>
       </c>
       <c r="P24">
-        <v>1.031316041782045</v>
+        <v>1.081202812635141</v>
       </c>
       <c r="Q24">
-        <v>1.031316041782045</v>
+        <v>1.081202812635141</v>
       </c>
       <c r="R24">
-        <v>0.980549721983544</v>
+        <v>1.027533050379033</v>
       </c>
       <c r="S24">
-        <v>0.980549721983544</v>
+        <v>1.027533050379033</v>
       </c>
       <c r="T24">
-        <v>1.033979415830886</v>
+        <v>1.054716426016761</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.12550417903039</v>
+        <v>1.016718304143196</v>
       </c>
       <c r="D25">
-        <v>1.313697011673588</v>
+        <v>1.306553329187661</v>
       </c>
       <c r="E25">
-        <v>1.12550417903039</v>
+        <v>1.016718304143196</v>
       </c>
       <c r="F25">
-        <v>0.7870488859797093</v>
+        <v>0.8044022550594857</v>
       </c>
       <c r="G25">
-        <v>0.9535273691531205</v>
+        <v>0.9545421566353679</v>
       </c>
       <c r="H25">
-        <v>1.140166528635945</v>
+        <v>1.151268193834164</v>
       </c>
       <c r="I25">
-        <v>0.4178312767181729</v>
+        <v>0.3915914898314264</v>
       </c>
       <c r="J25">
-        <v>1.313697011673588</v>
+        <v>1.306553329187661</v>
       </c>
       <c r="K25">
-        <v>1.313697011673588</v>
+        <v>1.306553329187661</v>
       </c>
       <c r="L25">
-        <v>0.7870488859797093</v>
+        <v>0.8044022550594857</v>
       </c>
       <c r="M25">
-        <v>0.9562765325050496</v>
+        <v>0.9105602796013406</v>
       </c>
       <c r="N25">
-        <v>0.9562765325050496</v>
+        <v>0.9105602796013406</v>
       </c>
       <c r="O25">
-        <v>1.017573197882015</v>
+        <v>0.9907962510122816</v>
       </c>
       <c r="P25">
-        <v>1.075416692227896</v>
+        <v>1.04255796279678</v>
       </c>
       <c r="Q25">
-        <v>1.075416692227896</v>
+        <v>1.042557962796781</v>
       </c>
       <c r="R25">
-        <v>1.134986772089319</v>
+        <v>1.108556804394501</v>
       </c>
       <c r="S25">
-        <v>1.134986772089319</v>
+        <v>1.108556804394501</v>
       </c>
       <c r="T25">
-        <v>0.9562958751984877</v>
+        <v>0.9375126214485499</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.09415679753867</v>
+        <v>1.220097920298576</v>
       </c>
       <c r="D26">
-        <v>0.790001976781931</v>
+        <v>0.8282507625880421</v>
       </c>
       <c r="E26">
-        <v>1.09415679753867</v>
+        <v>1.220097920298576</v>
       </c>
       <c r="F26">
-        <v>1.060893185540924</v>
+        <v>1.045599442459515</v>
       </c>
       <c r="G26">
-        <v>0.9767815977973181</v>
+        <v>0.9803007820091709</v>
       </c>
       <c r="H26">
-        <v>1.052355118101504</v>
+        <v>1.026463273013141</v>
       </c>
       <c r="I26">
-        <v>1.105620773907067</v>
+        <v>1.10316431461687</v>
       </c>
       <c r="J26">
-        <v>0.790001976781931</v>
+        <v>0.8282507625880421</v>
       </c>
       <c r="K26">
-        <v>0.790001976781931</v>
+        <v>0.8282507625880421</v>
       </c>
       <c r="L26">
-        <v>1.060893185540924</v>
+        <v>1.045599442459515</v>
       </c>
       <c r="M26">
-        <v>1.077524991539797</v>
+        <v>1.132848681379046</v>
       </c>
       <c r="N26">
-        <v>1.077524991539797</v>
+        <v>1.132848681379046</v>
       </c>
       <c r="O26">
-        <v>1.069135033727033</v>
+        <v>1.097386878590411</v>
       </c>
       <c r="P26">
-        <v>0.9816839866205086</v>
+        <v>1.031316041782045</v>
       </c>
       <c r="Q26">
-        <v>0.9816839866205084</v>
+        <v>1.031316041782045</v>
       </c>
       <c r="R26">
-        <v>0.9337634841608641</v>
+        <v>0.980549721983544</v>
       </c>
       <c r="S26">
-        <v>0.9337634841608641</v>
+        <v>0.980549721983544</v>
       </c>
       <c r="T26">
-        <v>1.013301574944569</v>
+        <v>1.033979415830886</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.6904650986027564</v>
+        <v>1.12550417903039</v>
       </c>
       <c r="D27">
-        <v>1.033029054631254</v>
+        <v>1.313697011673588</v>
       </c>
       <c r="E27">
-        <v>0.6904650986027564</v>
+        <v>1.12550417903039</v>
       </c>
       <c r="F27">
-        <v>1.00895991891007</v>
+        <v>0.7870488859797093</v>
       </c>
       <c r="G27">
-        <v>1.004864856955295</v>
+        <v>0.9535273691531205</v>
       </c>
       <c r="H27">
-        <v>0.9738710923712915</v>
+        <v>1.140166528635945</v>
       </c>
       <c r="I27">
-        <v>1.138376124846195</v>
+        <v>0.4178312767181729</v>
       </c>
       <c r="J27">
-        <v>1.033029054631254</v>
+        <v>1.313697011673588</v>
       </c>
       <c r="K27">
-        <v>1.033029054631254</v>
+        <v>1.313697011673588</v>
       </c>
       <c r="L27">
-        <v>1.00895991891007</v>
+        <v>0.7870488859797093</v>
       </c>
       <c r="M27">
-        <v>0.849712508756413</v>
+        <v>0.9562765325050496</v>
       </c>
       <c r="N27">
-        <v>0.849712508756413</v>
+        <v>0.9562765325050496</v>
       </c>
       <c r="O27">
-        <v>0.8910987032947059</v>
+        <v>1.017573197882015</v>
       </c>
       <c r="P27">
-        <v>0.9108180240480269</v>
+        <v>1.075416692227896</v>
       </c>
       <c r="Q27">
-        <v>0.9108180240480269</v>
+        <v>1.075416692227896</v>
       </c>
       <c r="R27">
-        <v>0.9413707816938337</v>
+        <v>1.134986772089319</v>
       </c>
       <c r="S27">
-        <v>0.9413707816938337</v>
+        <v>1.134986772089319</v>
       </c>
       <c r="T27">
-        <v>0.9749276910528105</v>
+        <v>0.9562958751984877</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.001333738848484</v>
+        <v>1.09415679753867</v>
       </c>
       <c r="D28">
-        <v>1.292351863655469</v>
+        <v>0.790001976781931</v>
       </c>
       <c r="E28">
-        <v>1.001333738848484</v>
+        <v>1.09415679753867</v>
       </c>
       <c r="F28">
-        <v>0.9027535688015299</v>
+        <v>1.060893185540924</v>
       </c>
       <c r="G28">
-        <v>0.9918147613005519</v>
+        <v>0.9767815977973181</v>
       </c>
       <c r="H28">
-        <v>0.9644175406027947</v>
+        <v>1.052355118101504</v>
       </c>
       <c r="I28">
-        <v>0.8030757239519616</v>
+        <v>1.105620773907067</v>
       </c>
       <c r="J28">
-        <v>1.292351863655469</v>
+        <v>0.790001976781931</v>
       </c>
       <c r="K28">
-        <v>1.292351863655469</v>
+        <v>0.790001976781931</v>
       </c>
       <c r="L28">
-        <v>0.9027535688015299</v>
+        <v>1.060893185540924</v>
       </c>
       <c r="M28">
-        <v>0.9520436538250068</v>
+        <v>1.077524991539797</v>
       </c>
       <c r="N28">
-        <v>0.9520436538250068</v>
+        <v>1.077524991539797</v>
       </c>
       <c r="O28">
-        <v>0.956168282750936</v>
+        <v>1.069135033727033</v>
       </c>
       <c r="P28">
-        <v>1.065479723768494</v>
+        <v>0.9816839866205086</v>
       </c>
       <c r="Q28">
-        <v>1.065479723768494</v>
+        <v>0.9816839866205084</v>
       </c>
       <c r="R28">
-        <v>1.122197758740238</v>
+        <v>0.9337634841608641</v>
       </c>
       <c r="S28">
-        <v>1.122197758740238</v>
+        <v>0.9337634841608641</v>
       </c>
       <c r="T28">
-        <v>0.9926245328601319</v>
+        <v>1.013301574944569</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.6904650986027564</v>
+      </c>
+      <c r="D29">
+        <v>1.033029054631254</v>
+      </c>
+      <c r="E29">
+        <v>0.6904650986027564</v>
+      </c>
+      <c r="F29">
+        <v>1.00895991891007</v>
+      </c>
+      <c r="G29">
+        <v>1.004864856955295</v>
+      </c>
+      <c r="H29">
+        <v>0.9738710923712915</v>
+      </c>
+      <c r="I29">
+        <v>1.138376124846195</v>
+      </c>
+      <c r="J29">
+        <v>1.033029054631254</v>
+      </c>
+      <c r="K29">
+        <v>1.033029054631254</v>
+      </c>
+      <c r="L29">
+        <v>1.00895991891007</v>
+      </c>
+      <c r="M29">
+        <v>0.849712508756413</v>
+      </c>
+      <c r="N29">
+        <v>0.849712508756413</v>
+      </c>
+      <c r="O29">
+        <v>0.8910987032947059</v>
+      </c>
+      <c r="P29">
+        <v>0.9108180240480269</v>
+      </c>
+      <c r="Q29">
+        <v>0.9108180240480269</v>
+      </c>
+      <c r="R29">
+        <v>0.9413707816938337</v>
+      </c>
+      <c r="S29">
+        <v>0.9413707816938337</v>
+      </c>
+      <c r="T29">
+        <v>0.9749276910528105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001333738848484</v>
+      </c>
+      <c r="D30">
+        <v>1.292351863655469</v>
+      </c>
+      <c r="E30">
+        <v>1.001333738848484</v>
+      </c>
+      <c r="F30">
+        <v>0.9027535688015299</v>
+      </c>
+      <c r="G30">
+        <v>0.9918147613005519</v>
+      </c>
+      <c r="H30">
+        <v>0.9644175406027947</v>
+      </c>
+      <c r="I30">
+        <v>0.8030757239519616</v>
+      </c>
+      <c r="J30">
+        <v>1.292351863655469</v>
+      </c>
+      <c r="K30">
+        <v>1.292351863655469</v>
+      </c>
+      <c r="L30">
+        <v>0.9027535688015299</v>
+      </c>
+      <c r="M30">
+        <v>0.9520436538250068</v>
+      </c>
+      <c r="N30">
+        <v>0.9520436538250068</v>
+      </c>
+      <c r="O30">
+        <v>0.956168282750936</v>
+      </c>
+      <c r="P30">
+        <v>1.065479723768494</v>
+      </c>
+      <c r="Q30">
+        <v>1.065479723768494</v>
+      </c>
+      <c r="R30">
+        <v>1.122197758740238</v>
+      </c>
+      <c r="S30">
+        <v>1.122197758740238</v>
+      </c>
+      <c r="T30">
+        <v>0.9926245328601319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.8307884887056712</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.064575001281229</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.8307884887056712</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9924055613998732</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9523942762648211</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.195956761735578</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.2874292366890198</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.064575001281229</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.064575001281229</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9924055613998732</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9115970250527723</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9115970250527723</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.006383603947041</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9625896837955913</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9625896837955912</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9880860131670007</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9880860131670007</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.8872582210126988</v>
       </c>
     </row>
